--- a/error_report/Error Report Inpatient.xlsx
+++ b/error_report/Error Report Inpatient.xlsx
@@ -1908,9 +1908,6 @@
     <t>No EX code on Denied</t>
   </si>
   <si>
-    <t>Voided Out - Dates Overlapping</t>
-  </si>
-  <si>
     <t>Cert Entered - Voided After</t>
   </si>
   <si>
@@ -1920,9 +1917,6 @@
     <t>No EX Code</t>
   </si>
   <si>
-    <t>No EX Code - No Auth Svcs</t>
-  </si>
-  <si>
     <t>Only Cert Entered - Not Voided</t>
   </si>
   <si>
@@ -2302,6 +2296,12 @@
   </si>
   <si>
     <t>Fixed</t>
+  </si>
+  <si>
+    <t>Dates Overlapping</t>
+  </si>
+  <si>
+    <t>Dupe or Overlap</t>
   </si>
 </sst>
 </file>
@@ -2349,12 +2349,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2369,7 +2375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2393,6 +2399,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2701,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2746,7 +2758,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="6">
@@ -2765,12 +2777,12 @@
         <v>42837</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>630</v>
+        <v>760</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="6">
@@ -2789,12 +2801,12 @@
         <v>42839</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>630</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
@@ -2818,7 +2830,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6">
@@ -2842,7 +2854,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6">
@@ -2866,7 +2878,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="6">
@@ -2885,12 +2897,12 @@
         <v>42488</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>630</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="6">
@@ -2909,12 +2921,12 @@
         <v>42773</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>630</v>
+        <v>760</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="6">
@@ -2933,12 +2945,12 @@
         <v>42781</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>630</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="6">
@@ -2957,12 +2969,12 @@
         <v>42793</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>630</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="6">
@@ -2986,7 +2998,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="6">
@@ -3010,7 +3022,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="6">
@@ -3034,7 +3046,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="6">
@@ -3058,7 +3070,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="6">
@@ -3082,7 +3094,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="6">
@@ -3101,12 +3113,12 @@
         <v>42808</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="6">
@@ -3130,7 +3142,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="6">
@@ -3149,12 +3161,12 @@
         <v>42810</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>630</v>
+        <v>760</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="6">
@@ -3173,12 +3185,12 @@
         <v>42809</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>630</v>
+        <v>760</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="6">
@@ -3202,7 +3214,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="6">
@@ -3226,7 +3238,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="6">
@@ -3250,7 +3262,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="6">
@@ -3269,12 +3281,12 @@
         <v>42808</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="6">
@@ -3293,12 +3305,12 @@
         <v>42813</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="6">
@@ -3317,12 +3329,12 @@
         <v>42818</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="6">
@@ -3341,12 +3353,12 @@
         <v>42822</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="6">
@@ -3365,12 +3377,12 @@
         <v>42823</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>630</v>
+        <v>760</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="6">
@@ -3388,13 +3400,13 @@
       <c r="G28" s="8">
         <v>42823</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>634</v>
+      <c r="H28" s="7" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="6">
@@ -3412,13 +3424,13 @@
       <c r="G29" s="8">
         <v>42827</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>631</v>
+      <c r="H29" s="7" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C30" s="6">
@@ -3436,13 +3448,13 @@
       <c r="G30" s="8">
         <v>42829</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>633</v>
+      <c r="H30" s="7" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="6">
@@ -3460,13 +3472,13 @@
       <c r="G31" s="8">
         <v>42828</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>633</v>
+      <c r="H31" s="7" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="6">
@@ -3485,12 +3497,12 @@
         <v>42861</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="6">
@@ -3509,12 +3521,12 @@
         <v>42832</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>630</v>
+        <v>760</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="6">
@@ -3532,13 +3544,13 @@
       <c r="G34" s="8">
         <v>42835</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>633</v>
+      <c r="H34" s="7" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C35" s="6">
@@ -3556,13 +3568,13 @@
       <c r="G35" s="8">
         <v>42836</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>631</v>
+      <c r="H35" s="7" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C36" s="6">
@@ -3580,13 +3592,13 @@
       <c r="G36" s="8">
         <v>42845</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>631</v>
+      <c r="H36" s="7" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="6">
@@ -3604,13 +3616,13 @@
       <c r="G37" s="8">
         <v>42836</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>633</v>
+      <c r="H37" s="7" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C38" s="6">
@@ -3628,13 +3640,13 @@
       <c r="G38" s="8">
         <v>42838</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>633</v>
+      <c r="H38" s="7" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="6">
@@ -3652,13 +3664,13 @@
       <c r="G39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>629</v>
+      <c r="H39" s="7" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C40" s="6">
@@ -3682,7 +3694,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C41" s="6">
@@ -3700,13 +3712,13 @@
       <c r="G41" s="8">
         <v>42841</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>633</v>
+      <c r="H41" s="7" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C42" s="6">
@@ -3724,13 +3736,13 @@
       <c r="G42" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="6" t="s">
-        <v>629</v>
+      <c r="H42" s="7" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C43" s="6">
@@ -3748,13 +3760,13 @@
       <c r="G43" s="8">
         <v>42839</v>
       </c>
-      <c r="H43" s="6" t="s">
-        <v>635</v>
+      <c r="H43" s="7" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C44" s="6">
@@ -3772,13 +3784,13 @@
       <c r="G44" s="8">
         <v>42839</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>628</v>
+      <c r="H44" s="7" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="6">
@@ -3796,8 +3808,8 @@
       <c r="G45" s="8">
         <v>42842</v>
       </c>
-      <c r="H45" s="6" t="s">
-        <v>634</v>
+      <c r="H45" s="7" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3845,7 +3857,7 @@
         <v>42635</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3941,7 +3953,7 @@
         <v>42848</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3989,7 +4001,7 @@
         <v>42856</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -4013,7 +4025,7 @@
         <v>42849</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -4061,7 +4073,7 @@
         <v>42853</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>630</v>
+        <v>760</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -4085,7 +4097,7 @@
         <v>42854</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>630</v>
+        <v>760</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4133,7 +4145,7 @@
         <v>42488</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>630</v>
+        <v>760</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -4157,7 +4169,7 @@
         <v>42857</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -4181,7 +4193,7 @@
         <v>42853</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -4229,7 +4241,7 @@
         <v>42857</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -4253,7 +4265,7 @@
         <v>42858</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -4277,7 +4289,7 @@
         <v>42857</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>630</v>
+        <v>760</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4301,7 +4313,7 @@
         <v>42858</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>630</v>
+        <v>760</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4325,7 +4337,7 @@
         <v>42861</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4349,7 +4361,7 @@
         <v>42860</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4373,7 +4385,7 @@
         <v>42863</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4397,7 +4409,7 @@
         <v>42866</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -7326,7 +7338,7 @@
       </c>
       <c r="H203" s="6"/>
     </row>
-    <row r="205" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>42869</v>
       </c>
@@ -7349,7 +7361,7 @@
         <v>2222017</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B206" s="2" t="s">
         <v>382</v>
       </c>
@@ -7369,7 +7381,7 @@
         <v>3022017</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B207" s="2" t="s">
         <v>384</v>
       </c>
@@ -7389,7 +7401,7 @@
         <v>3032017</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B208" s="2" t="s">
         <v>386</v>
       </c>
@@ -7409,7 +7421,7 @@
         <v>3162017</v>
       </c>
     </row>
-    <row r="209" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B209" s="2" t="s">
         <v>388</v>
       </c>
@@ -7429,7 +7441,7 @@
         <v>3162017</v>
       </c>
     </row>
-    <row r="210" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B210" s="2" t="s">
         <v>390</v>
       </c>
@@ -7449,7 +7461,7 @@
         <v>3162017</v>
       </c>
     </row>
-    <row r="211" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B211" s="2" t="s">
         <v>392</v>
       </c>
@@ -7469,7 +7481,7 @@
         <v>3162017</v>
       </c>
     </row>
-    <row r="212" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B212" s="2" t="s">
         <v>394</v>
       </c>
@@ -7489,7 +7501,7 @@
         <v>3182017</v>
       </c>
     </row>
-    <row r="213" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B213" s="2" t="s">
         <v>396</v>
       </c>
@@ -7509,7 +7521,7 @@
         <v>3182017</v>
       </c>
     </row>
-    <row r="214" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" s="2" t="s">
         <v>398</v>
       </c>
@@ -7529,7 +7541,7 @@
         <v>3202017</v>
       </c>
     </row>
-    <row r="215" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215" s="2" t="s">
         <v>399</v>
       </c>
@@ -7549,7 +7561,7 @@
         <v>3192017</v>
       </c>
     </row>
-    <row r="216" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B216" s="2" t="s">
         <v>401</v>
       </c>
@@ -7569,7 +7581,7 @@
         <v>3202017</v>
       </c>
     </row>
-    <row r="217" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B217" s="2" t="s">
         <v>402</v>
       </c>
@@ -7589,7 +7601,7 @@
         <v>3182017</v>
       </c>
     </row>
-    <row r="218" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218" s="2" t="s">
         <v>404</v>
       </c>
@@ -7609,7 +7621,7 @@
         <v>3212017</v>
       </c>
     </row>
-    <row r="219" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B219" s="2" t="s">
         <v>406</v>
       </c>
@@ -7629,7 +7641,7 @@
         <v>3212017</v>
       </c>
     </row>
-    <row r="220" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B220" s="2" t="s">
         <v>407</v>
       </c>
@@ -7649,7 +7661,7 @@
         <v>3222017</v>
       </c>
     </row>
-    <row r="221" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B221" s="2" t="s">
         <v>409</v>
       </c>
@@ -7669,7 +7681,7 @@
         <v>3242017</v>
       </c>
     </row>
-    <row r="222" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B222" s="2" t="s">
         <v>411</v>
       </c>
@@ -7689,7 +7701,7 @@
         <v>3242017</v>
       </c>
     </row>
-    <row r="223" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B223" s="2" t="s">
         <v>413</v>
       </c>
@@ -7709,7 +7721,7 @@
         <v>3302017</v>
       </c>
     </row>
-    <row r="224" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B224" s="2" t="s">
         <v>415</v>
       </c>
@@ -7729,7 +7741,7 @@
         <v>3312017</v>
       </c>
     </row>
-    <row r="225" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B225" s="2" t="s">
         <v>417</v>
       </c>
@@ -7749,7 +7761,7 @@
         <v>4032017</v>
       </c>
     </row>
-    <row r="226" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B226" s="2" t="s">
         <v>418</v>
       </c>
@@ -7769,7 +7781,7 @@
         <v>4032017</v>
       </c>
     </row>
-    <row r="227" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B227" s="2" t="s">
         <v>420</v>
       </c>
@@ -7789,7 +7801,7 @@
         <v>4042017</v>
       </c>
     </row>
-    <row r="228" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B228" s="2" t="s">
         <v>422</v>
       </c>
@@ -7809,7 +7821,7 @@
         <v>4042017</v>
       </c>
     </row>
-    <row r="229" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B229" s="2" t="s">
         <v>424</v>
       </c>
@@ -7829,7 +7841,7 @@
         <v>4042017</v>
       </c>
     </row>
-    <row r="230" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B230" s="2" t="s">
         <v>426</v>
       </c>
@@ -7849,7 +7861,7 @@
         <v>4042017</v>
       </c>
     </row>
-    <row r="231" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B231" s="2" t="s">
         <v>427</v>
       </c>
@@ -7869,7 +7881,7 @@
         <v>4052017</v>
       </c>
     </row>
-    <row r="232" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B232" s="2" t="s">
         <v>429</v>
       </c>
@@ -7889,7 +7901,7 @@
         <v>4052017</v>
       </c>
     </row>
-    <row r="233" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B233" s="2" t="s">
         <v>430</v>
       </c>
@@ -7909,7 +7921,7 @@
         <v>4052017</v>
       </c>
     </row>
-    <row r="234" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B234" s="2" t="s">
         <v>431</v>
       </c>
@@ -7929,7 +7941,7 @@
         <v>4062017</v>
       </c>
     </row>
-    <row r="235" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B235" s="2" t="s">
         <v>433</v>
       </c>
@@ -7949,7 +7961,7 @@
         <v>4082017</v>
       </c>
     </row>
-    <row r="236" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B236" s="2" t="s">
         <v>435</v>
       </c>
@@ -7969,7 +7981,7 @@
         <v>4072017</v>
       </c>
     </row>
-    <row r="237" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B237" s="2" t="s">
         <v>437</v>
       </c>
@@ -7989,7 +8001,7 @@
         <v>4122017</v>
       </c>
     </row>
-    <row r="238" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B238" s="2" t="s">
         <v>439</v>
       </c>
@@ -8009,7 +8021,7 @@
         <v>4122017</v>
       </c>
     </row>
-    <row r="239" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B239" s="2" t="s">
         <v>440</v>
       </c>
@@ -8029,7 +8041,7 @@
         <v>4122017</v>
       </c>
     </row>
-    <row r="240" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B240" s="2" t="s">
         <v>442</v>
       </c>
@@ -8049,7 +8061,7 @@
         <v>4122017</v>
       </c>
     </row>
-    <row r="241" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B241" s="2" t="s">
         <v>443</v>
       </c>
@@ -8069,7 +8081,7 @@
         <v>4122017</v>
       </c>
     </row>
-    <row r="242" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B242" s="2" t="s">
         <v>445</v>
       </c>
@@ -8089,7 +8101,7 @@
         <v>4122017</v>
       </c>
     </row>
-    <row r="243" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B243" s="2" t="s">
         <v>446</v>
       </c>
@@ -8109,7 +8121,7 @@
         <v>4122017</v>
       </c>
     </row>
-    <row r="244" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B244" s="2" t="s">
         <v>448</v>
       </c>
@@ -8129,7 +8141,7 @@
         <v>4152017</v>
       </c>
     </row>
-    <row r="245" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B245" s="2" t="s">
         <v>450</v>
       </c>
@@ -8149,7 +8161,7 @@
         <v>4162017</v>
       </c>
     </row>
-    <row r="246" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B246" s="2" t="s">
         <v>451</v>
       </c>
@@ -8169,7 +8181,7 @@
         <v>4212017</v>
       </c>
     </row>
-    <row r="247" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B247" s="2" t="s">
         <v>452</v>
       </c>
@@ -8189,7 +8201,7 @@
         <v>5102017</v>
       </c>
     </row>
-    <row r="248" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B248" s="2" t="s">
         <v>454</v>
       </c>
@@ -8209,7 +8221,7 @@
         <v>5022017</v>
       </c>
     </row>
-    <row r="249" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B249" s="2" t="s">
         <v>456</v>
       </c>
@@ -8229,7 +8241,7 @@
         <v>4242017</v>
       </c>
     </row>
-    <row r="250" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B250" s="2" t="s">
         <v>458</v>
       </c>
@@ -8249,7 +8261,7 @@
         <v>4242017</v>
       </c>
     </row>
-    <row r="251" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B251" s="2" t="s">
         <v>460</v>
       </c>
@@ -8269,7 +8281,7 @@
         <v>4252017</v>
       </c>
     </row>
-    <row r="252" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B252" s="2" t="s">
         <v>461</v>
       </c>
@@ -8289,7 +8301,7 @@
         <v>4272017</v>
       </c>
     </row>
-    <row r="253" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B253" s="2" t="s">
         <v>463</v>
       </c>
@@ -8309,7 +8321,7 @@
         <v>4282017</v>
       </c>
     </row>
-    <row r="254" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B254" s="2" t="s">
         <v>465</v>
       </c>
@@ -8329,7 +8341,7 @@
         <v>4282017</v>
       </c>
     </row>
-    <row r="255" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B255" s="2" t="s">
         <v>467</v>
       </c>
@@ -8349,7 +8361,7 @@
         <v>4302017</v>
       </c>
     </row>
-    <row r="256" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B256" s="2" t="s">
         <v>469</v>
       </c>
@@ -8369,7 +8381,7 @@
         <v>4302017</v>
       </c>
     </row>
-    <row r="257" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B257" s="2" t="s">
         <v>470</v>
       </c>
@@ -8389,7 +8401,7 @@
         <v>4302017</v>
       </c>
     </row>
-    <row r="258" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B258" s="2" t="s">
         <v>472</v>
       </c>
@@ -8409,7 +8421,7 @@
         <v>4302017</v>
       </c>
     </row>
-    <row r="259" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B259" s="2" t="s">
         <v>384</v>
       </c>
@@ -8429,7 +8441,7 @@
         <v>5012017</v>
       </c>
     </row>
-    <row r="260" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B260" s="2" t="s">
         <v>475</v>
       </c>
@@ -8449,7 +8461,7 @@
         <v>5032017</v>
       </c>
     </row>
-    <row r="261" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B261" s="2" t="s">
         <v>476</v>
       </c>
@@ -8469,7 +8481,7 @@
         <v>4072017</v>
       </c>
     </row>
-    <row r="262" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B262" s="2" t="s">
         <v>478</v>
       </c>
@@ -8489,7 +8501,7 @@
         <v>4102017</v>
       </c>
     </row>
-    <row r="263" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B263" s="2" t="s">
         <v>78</v>
       </c>
@@ -8509,7 +8521,7 @@
         <v>4202017</v>
       </c>
     </row>
-    <row r="264" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B264" s="2" t="s">
         <v>481</v>
       </c>
@@ -8529,7 +8541,7 @@
         <v>4272017</v>
       </c>
     </row>
-    <row r="265" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B265" s="2" t="s">
         <v>483</v>
       </c>
@@ -8549,7 +8561,7 @@
         <v>4192017</v>
       </c>
     </row>
-    <row r="266" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B266" s="2" t="s">
         <v>485</v>
       </c>
@@ -8569,7 +8581,7 @@
         <v>4262017</v>
       </c>
     </row>
-    <row r="267" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B267" s="2" t="s">
         <v>487</v>
       </c>
@@ -8589,7 +8601,7 @@
         <v>5102017</v>
       </c>
     </row>
-    <row r="268" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B268" s="2" t="s">
         <v>489</v>
       </c>
@@ -8609,7 +8621,7 @@
         <v>4272017</v>
       </c>
     </row>
-    <row r="269" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B269" s="2" t="s">
         <v>491</v>
       </c>
@@ -8629,7 +8641,7 @@
         <v>4292017</v>
       </c>
     </row>
-    <row r="270" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B270" s="2" t="s">
         <v>258</v>
       </c>
@@ -8649,7 +8661,7 @@
         <v>5042017</v>
       </c>
     </row>
-    <row r="271" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B271" s="2" t="s">
         <v>494</v>
       </c>
@@ -8669,7 +8681,7 @@
         <v>5052017</v>
       </c>
     </row>
-    <row r="272" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B272" s="2" t="s">
         <v>495</v>
       </c>
@@ -8689,7 +8701,7 @@
         <v>5082017</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B273" s="2" t="s">
         <v>497</v>
       </c>
@@ -8709,7 +8721,7 @@
         <v>3222017</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B274" s="2" t="s">
         <v>499</v>
       </c>
@@ -8732,12 +8744,12 @@
         <v>629</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>42870</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B276" s="2" t="s">
         <v>501</v>
       </c>
@@ -8757,7 +8769,7 @@
         <v>4252017</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B277" s="2" t="s">
         <v>502</v>
       </c>
@@ -8777,7 +8789,7 @@
         <v>4282017</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B278" s="2" t="s">
         <v>504</v>
       </c>
@@ -8797,7 +8809,7 @@
         <v>5142017</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B279" s="2" t="s">
         <v>505</v>
       </c>
@@ -8817,7 +8829,7 @@
         <v>3152017</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B280" s="2" t="s">
         <v>194</v>
       </c>
@@ -8837,7 +8849,7 @@
         <v>3292017</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B281" s="2" t="s">
         <v>507</v>
       </c>
@@ -8857,7 +8869,7 @@
         <v>4062017</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B282" s="2" t="s">
         <v>508</v>
       </c>
@@ -8877,7 +8889,7 @@
         <v>4082017</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B283" s="2" t="s">
         <v>509</v>
       </c>
@@ -8897,7 +8909,7 @@
         <v>3242017</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B284" s="2" t="s">
         <v>510</v>
       </c>
@@ -8917,7 +8929,7 @@
         <v>4122017</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B285" s="2" t="s">
         <v>512</v>
       </c>
@@ -8937,7 +8949,7 @@
         <v>4132017</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B286" s="2" t="s">
         <v>514</v>
       </c>
@@ -8957,7 +8969,7 @@
         <v>4122017</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B287" s="2" t="s">
         <v>516</v>
       </c>
@@ -8977,7 +8989,7 @@
         <v>4142017</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B288" s="2" t="s">
         <v>518</v>
       </c>
@@ -8997,7 +9009,7 @@
         <v>4152017</v>
       </c>
     </row>
-    <row r="289" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B289" s="2" t="s">
         <v>520</v>
       </c>
@@ -9017,7 +9029,7 @@
         <v>4182017</v>
       </c>
     </row>
-    <row r="290" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B290" s="2" t="s">
         <v>521</v>
       </c>
@@ -9037,7 +9049,7 @@
         <v>4212017</v>
       </c>
     </row>
-    <row r="291" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B291" s="2" t="s">
         <v>523</v>
       </c>
@@ -9057,7 +9069,7 @@
         <v>4262017</v>
       </c>
     </row>
-    <row r="292" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B292" s="2" t="s">
         <v>525</v>
       </c>
@@ -9077,7 +9089,7 @@
         <v>4282017</v>
       </c>
     </row>
-    <row r="293" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B293" s="2" t="s">
         <v>526</v>
       </c>
@@ -9097,7 +9109,7 @@
         <v>4292017</v>
       </c>
     </row>
-    <row r="294" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B294" s="2" t="s">
         <v>528</v>
       </c>
@@ -9117,7 +9129,7 @@
         <v>5032017</v>
       </c>
     </row>
-    <row r="295" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B295" s="2" t="s">
         <v>530</v>
       </c>
@@ -9137,7 +9149,7 @@
         <v>5112017</v>
       </c>
     </row>
-    <row r="296" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B296" s="2" t="s">
         <v>532</v>
       </c>
@@ -9157,7 +9169,7 @@
         <v>5072017</v>
       </c>
     </row>
-    <row r="297" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B297" s="2" t="s">
         <v>533</v>
       </c>
@@ -9177,7 +9189,7 @@
         <v>5102017</v>
       </c>
     </row>
-    <row r="298" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B298" s="2" t="s">
         <v>534</v>
       </c>
@@ -9197,7 +9209,7 @@
         <v>2022017</v>
       </c>
     </row>
-    <row r="299" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B299" s="2" t="s">
         <v>250</v>
       </c>
@@ -9217,7 +9229,7 @@
         <v>4282017</v>
       </c>
     </row>
-    <row r="300" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B300" s="2" t="s">
         <v>240</v>
       </c>
@@ -9237,7 +9249,7 @@
         <v>5012017</v>
       </c>
     </row>
-    <row r="301" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B301" s="2" t="s">
         <v>537</v>
       </c>
@@ -9257,7 +9269,7 @@
         <v>5042017</v>
       </c>
     </row>
-    <row r="302" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B302" s="2" t="s">
         <v>538</v>
       </c>
@@ -9277,7 +9289,7 @@
         <v>5052017</v>
       </c>
     </row>
-    <row r="303" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B303" s="2" t="s">
         <v>540</v>
       </c>
@@ -9297,7 +9309,7 @@
         <v>5052017</v>
       </c>
     </row>
-    <row r="304" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B304" s="2" t="s">
         <v>542</v>
       </c>
@@ -9317,12 +9329,12 @@
         <v>5112017</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>42871</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B306" s="2" t="s">
         <v>544</v>
       </c>
@@ -9342,7 +9354,7 @@
         <v>4172017</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B307" s="2" t="s">
         <v>545</v>
       </c>
@@ -9362,7 +9374,7 @@
         <v>5022017</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B308" s="2" t="s">
         <v>547</v>
       </c>
@@ -9382,7 +9394,7 @@
         <v>5052017</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B309" s="2" t="s">
         <v>549</v>
       </c>
@@ -9402,7 +9414,7 @@
         <v>5062017</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B310" s="2" t="s">
         <v>551</v>
       </c>
@@ -9422,7 +9434,7 @@
         <v>5142017</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B311" s="2" t="s">
         <v>553</v>
       </c>
@@ -9442,7 +9454,7 @@
         <v>2212017</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B312" s="2" t="s">
         <v>555</v>
       </c>
@@ -9462,7 +9474,7 @@
         <v>3242017</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B313" s="2" t="s">
         <v>556</v>
       </c>
@@ -9482,7 +9494,7 @@
         <v>4112017</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B314" s="2" t="s">
         <v>558</v>
       </c>
@@ -9502,7 +9514,7 @@
         <v>4222017</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B315" s="4" t="s">
         <v>559</v>
       </c>
@@ -9522,7 +9534,7 @@
         <v>4242017</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B316" s="2" t="s">
         <v>561</v>
       </c>
@@ -9542,7 +9554,7 @@
         <v>4272017</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B317" s="2" t="s">
         <v>563</v>
       </c>
@@ -9562,7 +9574,7 @@
         <v>4262017</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B318" s="2" t="s">
         <v>565</v>
       </c>
@@ -9582,7 +9594,7 @@
         <v>5112017</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B319" s="2" t="s">
         <v>567</v>
       </c>
@@ -9602,7 +9614,7 @@
         <v>5102017</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B320" s="2" t="s">
         <v>569</v>
       </c>
@@ -9622,12 +9634,12 @@
         <v>5142017</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>42872</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B322" s="2" t="s">
         <v>570</v>
       </c>
@@ -9647,7 +9659,7 @@
         <v>3102017</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B323" s="2" t="s">
         <v>571</v>
       </c>
@@ -9667,7 +9679,7 @@
         <v>4152017</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B324" s="2" t="s">
         <v>572</v>
       </c>
@@ -9687,7 +9699,7 @@
         <v>4232017</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B325" s="2" t="s">
         <v>574</v>
       </c>
@@ -9707,7 +9719,7 @@
         <v>4252017</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B326" s="2" t="s">
         <v>575</v>
       </c>
@@ -9727,7 +9739,7 @@
         <v>5082017</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B327" s="2" t="s">
         <v>577</v>
       </c>
@@ -9747,7 +9759,7 @@
         <v>5102017</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B328" s="2" t="s">
         <v>578</v>
       </c>
@@ -9767,7 +9779,7 @@
         <v>5132017</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B329" s="2" t="s">
         <v>580</v>
       </c>
@@ -9787,7 +9799,7 @@
         <v>5142017</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B330" s="2" t="s">
         <v>581</v>
       </c>
@@ -9807,7 +9819,7 @@
         <v>2172017</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B331" s="2" t="s">
         <v>583</v>
       </c>
@@ -9827,7 +9839,7 @@
         <v>3302017</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B332" s="2" t="s">
         <v>585</v>
       </c>
@@ -9847,7 +9859,7 @@
         <v>4032017</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B333" s="2" t="s">
         <v>587</v>
       </c>
@@ -9867,7 +9879,7 @@
         <v>4132017</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B334" s="2" t="s">
         <v>589</v>
       </c>
@@ -9887,7 +9899,7 @@
         <v>4162017</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B335" s="2" t="s">
         <v>591</v>
       </c>
@@ -9907,7 +9919,7 @@
         <v>4192017</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B336" s="2" t="s">
         <v>593</v>
       </c>
@@ -9927,7 +9939,7 @@
         <v>4252017</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B337" s="2" t="s">
         <v>595</v>
       </c>
@@ -9947,7 +9959,7 @@
         <v>5012017</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B338" s="2" t="s">
         <v>597</v>
       </c>
@@ -9967,7 +9979,7 @@
         <v>5042017</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B339" s="2" t="s">
         <v>599</v>
       </c>
@@ -9987,7 +9999,7 @@
         <v>5102017</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B340" s="2" t="s">
         <v>601</v>
       </c>
@@ -10007,7 +10019,7 @@
         <v>5032017</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B341" s="2" t="s">
         <v>603</v>
       </c>
@@ -10027,7 +10039,7 @@
         <v>5052017</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B342" s="2" t="s">
         <v>605</v>
       </c>
@@ -10047,7 +10059,7 @@
         <v>4302016</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B343" s="2" t="s">
         <v>607</v>
       </c>
@@ -10067,7 +10079,7 @@
         <v>5102017</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B344" s="2" t="s">
         <v>609</v>
       </c>
@@ -10087,12 +10099,12 @@
         <v>5132017</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>42873</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B346" s="2" t="s">
         <v>611</v>
       </c>
@@ -10112,7 +10124,7 @@
         <v>5172017</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B347" s="2" t="s">
         <v>612</v>
       </c>
@@ -10132,7 +10144,7 @@
         <v>5172017</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B348" s="2" t="s">
         <v>613</v>
       </c>
@@ -10152,7 +10164,7 @@
         <v>2232017</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B349" s="2" t="s">
         <v>614</v>
       </c>
@@ -10172,7 +10184,7 @@
         <v>3042017</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B350" s="2" t="s">
         <v>616</v>
       </c>
@@ -10192,7 +10204,7 @@
         <v>3072017</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B351" s="2" t="s">
         <v>617</v>
       </c>
@@ -10212,7 +10224,7 @@
         <v>3222017</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B352" s="2" t="s">
         <v>618</v>
       </c>
@@ -10232,7 +10244,7 @@
         <v>4252017</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B353" s="2" t="s">
         <v>620</v>
       </c>
@@ -10252,7 +10264,7 @@
         <v>5022017</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B354" s="2" t="s">
         <v>622</v>
       </c>
@@ -10272,7 +10284,7 @@
         <v>5082017</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B355" s="4" t="s">
         <v>226</v>
       </c>
@@ -10292,7 +10304,7 @@
         <v>4252017</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B356" s="2" t="s">
         <v>625</v>
       </c>
@@ -10312,7 +10324,7 @@
         <v>5152017</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B357" s="2" t="s">
         <v>626</v>
       </c>
@@ -10335,14 +10347,14 @@
         <v>629</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>42874</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B359" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C359" s="2">
         <v>948317</v>
@@ -10354,15 +10366,15 @@
         <v>8</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G359" s="2">
         <v>2052017</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B360" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C360" s="2">
         <v>922026</v>
@@ -10380,9 +10392,9 @@
         <v>5112017</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B361" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C361" s="2">
         <v>921316</v>
@@ -10400,9 +10412,9 @@
         <v>5112017</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B362" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C362" s="2">
         <v>904235</v>
@@ -10420,9 +10432,9 @@
         <v>5132017</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B363" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C363" s="2">
         <v>937254</v>
@@ -10434,15 +10446,15 @@
         <v>8</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G363" s="2">
         <v>5162017</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B364" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C364" s="2">
         <v>911533</v>
@@ -10454,15 +10466,15 @@
         <v>8</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G364" s="2">
         <v>5162017</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B365" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C365" s="2">
         <v>947810</v>
@@ -10474,15 +10486,15 @@
         <v>8</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G365" s="2">
         <v>5162017</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B366" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C366" s="2">
         <v>916638</v>
@@ -10494,13 +10506,13 @@
         <v>143</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G366" s="2">
         <v>3282017</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B367" s="2" t="s">
         <v>93</v>
       </c>
@@ -10520,9 +10532,9 @@
         <v>4082017</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B368" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C368" s="2">
         <v>904131</v>
@@ -10534,13 +10546,13 @@
         <v>143</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G368" s="2">
         <v>4072017</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B369" s="2" t="s">
         <v>494</v>
       </c>
@@ -10554,15 +10566,15 @@
         <v>143</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G369" s="2">
         <v>4122017</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B370" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C370" s="2">
         <v>907783</v>
@@ -10574,15 +10586,15 @@
         <v>143</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G370" s="2">
         <v>4132017</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B371" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C371" s="2">
         <v>936386</v>
@@ -10594,15 +10606,15 @@
         <v>143</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G371" s="2">
         <v>5092017</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B372" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C372" s="2">
         <v>904131</v>
@@ -10614,15 +10626,15 @@
         <v>143</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G372" s="2">
         <v>5112017</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B373" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C373" s="2">
         <v>937327</v>
@@ -10640,9 +10652,9 @@
         <v>5192017</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B374" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C374" s="2">
         <v>926511</v>
@@ -10654,15 +10666,15 @@
         <v>23</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G374" s="2">
         <v>5152017</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B375" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C375" s="2">
         <v>913771</v>
@@ -10674,15 +10686,15 @@
         <v>23</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G375" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B376" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C376" s="2">
         <v>949538</v>
@@ -10700,9 +10712,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B377" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C377" s="2">
         <v>999999</v>
@@ -10720,9 +10732,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B378" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C378" s="2">
         <v>911023</v>
@@ -10734,18 +10746,18 @@
         <v>23</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G378" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>42877</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B380" s="2" t="s">
         <v>547</v>
       </c>
@@ -10765,7 +10777,7 @@
         <v>5052017</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B381" s="2" t="s">
         <v>549</v>
       </c>
@@ -10785,9 +10797,9 @@
         <v>5062017</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B382" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C382" s="2">
         <v>913747</v>
@@ -10805,9 +10817,9 @@
         <v>5132017</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B383" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C383" s="2">
         <v>927682</v>
@@ -10819,15 +10831,15 @@
         <v>8</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G383" s="2">
         <v>5152017</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B384" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C384" s="2">
         <v>926068</v>
@@ -10839,15 +10851,15 @@
         <v>8</v>
       </c>
       <c r="F384" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G384" s="2">
         <v>5162017</v>
       </c>
     </row>
-    <row r="385" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B385" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C385" s="2">
         <v>942960</v>
@@ -10859,15 +10871,15 @@
         <v>8</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G385" s="2">
         <v>5202017</v>
       </c>
     </row>
-    <row r="386" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B386" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C386" s="2">
         <v>936729</v>
@@ -10879,13 +10891,13 @@
         <v>8</v>
       </c>
       <c r="F386" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G386" s="2">
         <v>5202017</v>
       </c>
     </row>
-    <row r="387" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B387" s="2" t="s">
         <v>279</v>
       </c>
@@ -10899,15 +10911,15 @@
         <v>143</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G387" s="2">
         <v>3072017</v>
       </c>
     </row>
-    <row r="388" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B388" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C388" s="2">
         <v>900819</v>
@@ -10919,13 +10931,13 @@
         <v>143</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G388" s="2">
         <v>3302017</v>
       </c>
     </row>
-    <row r="389" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B389" s="2" t="s">
         <v>226</v>
       </c>
@@ -10945,9 +10957,9 @@
         <v>4042017</v>
       </c>
     </row>
-    <row r="390" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B390" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C390" s="2">
         <v>914714</v>
@@ -10959,15 +10971,15 @@
         <v>143</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G390" s="2">
         <v>4112017</v>
       </c>
     </row>
-    <row r="391" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B391" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C391" s="2">
         <v>925605</v>
@@ -10979,15 +10991,15 @@
         <v>143</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G391" s="2">
         <v>4112017</v>
       </c>
     </row>
-    <row r="392" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B392" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C392" s="2">
         <v>913181</v>
@@ -11005,9 +11017,9 @@
         <v>4122017</v>
       </c>
     </row>
-    <row r="393" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B393" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C393" s="2">
         <v>921419</v>
@@ -11025,9 +11037,9 @@
         <v>4142017</v>
       </c>
     </row>
-    <row r="394" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B394" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C394" s="2">
         <v>921419</v>
@@ -11045,9 +11057,9 @@
         <v>4232017</v>
       </c>
     </row>
-    <row r="395" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B395" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C395" s="2">
         <v>935546</v>
@@ -11059,15 +11071,15 @@
         <v>143</v>
       </c>
       <c r="F395" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G395" s="2">
         <v>4272017</v>
       </c>
     </row>
-    <row r="396" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B396" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C396" s="2">
         <v>914714</v>
@@ -11079,15 +11091,15 @@
         <v>143</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G396" s="2">
         <v>4282017</v>
       </c>
     </row>
-    <row r="397" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B397" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C397" s="2">
         <v>936846</v>
@@ -11099,15 +11111,15 @@
         <v>143</v>
       </c>
       <c r="F397" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G397" s="2">
         <v>4272017</v>
       </c>
     </row>
-    <row r="398" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B398" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C398" s="2">
         <v>916638</v>
@@ -11125,9 +11137,9 @@
         <v>4282017</v>
       </c>
     </row>
-    <row r="399" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B399" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C399" s="2">
         <v>900504</v>
@@ -11139,15 +11151,15 @@
         <v>143</v>
       </c>
       <c r="F399" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G399" s="2">
         <v>5012017</v>
       </c>
     </row>
-    <row r="400" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B400" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C400" s="2">
         <v>921419</v>
@@ -11159,15 +11171,15 @@
         <v>143</v>
       </c>
       <c r="F400" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G400" s="2">
         <v>5012017</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B401" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C401" s="2">
         <v>901387</v>
@@ -11179,15 +11191,15 @@
         <v>143</v>
       </c>
       <c r="F401" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G401" s="2">
         <v>5032017</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B402" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C402" s="2">
         <v>904883</v>
@@ -11199,15 +11211,15 @@
         <v>143</v>
       </c>
       <c r="F402" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G402" s="2">
         <v>4272017</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B403" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C403" s="2">
         <v>906519</v>
@@ -11219,15 +11231,15 @@
         <v>143</v>
       </c>
       <c r="F403" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="G403" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B404" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="G403" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
-      <c r="B404" s="2" t="s">
-        <v>708</v>
       </c>
       <c r="C404" s="2">
         <v>921419</v>
@@ -11239,15 +11251,15 @@
         <v>143</v>
       </c>
       <c r="F404" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="G404" s="2">
         <v>5122017</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B405" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C405" s="2">
         <v>916638</v>
@@ -11259,15 +11271,15 @@
         <v>143</v>
       </c>
       <c r="F405" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G405" s="2">
         <v>4272017</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B406" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C406" s="2">
         <v>930272</v>
@@ -11285,9 +11297,9 @@
         <v>4182017</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B407" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C407" s="2">
         <v>936019</v>
@@ -11299,13 +11311,13 @@
         <v>23</v>
       </c>
       <c r="F407" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G407" s="2">
         <v>5192017</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B408" s="4" t="s">
         <v>244</v>
       </c>
@@ -11325,7 +11337,7 @@
         <v>4302017</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B409" s="2" t="s">
         <v>76</v>
       </c>
@@ -11345,9 +11357,9 @@
         <v>5072017</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B410" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C410" s="2">
         <v>936475</v>
@@ -11359,20 +11371,20 @@
         <v>23</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G410" s="2">
         <v>5152017</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>42878</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B412" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C412" s="2">
         <v>946140</v>
@@ -11384,15 +11396,15 @@
         <v>8</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G412" s="2">
         <v>3262017</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B413" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C413" s="2">
         <v>935114</v>
@@ -11410,9 +11422,9 @@
         <v>5202017</v>
       </c>
     </row>
-    <row r="414" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B414" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C414" s="2">
         <v>912896</v>
@@ -11424,15 +11436,15 @@
         <v>8</v>
       </c>
       <c r="F414" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G414" s="2">
         <v>5202017</v>
       </c>
     </row>
-    <row r="415" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B415" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C415" s="2">
         <v>937001</v>
@@ -11444,15 +11456,15 @@
         <v>8</v>
       </c>
       <c r="F415" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G415" s="2">
         <v>5222017</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B416" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C416" s="2">
         <v>937361</v>
@@ -11464,15 +11476,15 @@
         <v>143</v>
       </c>
       <c r="F416" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G416" s="2">
         <v>3052017</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B417" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C417" s="2">
         <v>937376</v>
@@ -11484,15 +11496,15 @@
         <v>143</v>
       </c>
       <c r="F417" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G417" s="2">
         <v>3022017</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B418" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C418" s="2">
         <v>937109</v>
@@ -11504,15 +11516,15 @@
         <v>143</v>
       </c>
       <c r="F418" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G418" s="2">
         <v>3092017</v>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B419" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C419" s="2">
         <v>903552</v>
@@ -11530,9 +11542,9 @@
         <v>4032017</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B420" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C420" s="2">
         <v>927490</v>
@@ -11544,15 +11556,15 @@
         <v>143</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G420" s="2">
         <v>4102017</v>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B421" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C421" s="2">
         <v>936386</v>
@@ -11564,15 +11576,15 @@
         <v>143</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G421" s="2">
         <v>4192017</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B422" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C422" s="2">
         <v>935040</v>
@@ -11584,15 +11596,15 @@
         <v>143</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G422" s="2">
         <v>4302017</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B423" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C423" s="2">
         <v>935040</v>
@@ -11604,15 +11616,15 @@
         <v>143</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G423" s="2">
         <v>5082017</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B424" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C424" s="2">
         <v>936399</v>
@@ -11630,9 +11642,9 @@
         <v>4072017</v>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B425" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C425" s="2">
         <v>901100</v>
@@ -11644,20 +11656,20 @@
         <v>23</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G425" s="2">
         <v>5042017</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>42879</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B427" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C427" s="2">
         <v>930025</v>
@@ -11669,15 +11681,15 @@
         <v>8</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G427" s="2">
         <v>3182017</v>
       </c>
     </row>
-    <row r="428" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B428" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C428" s="4">
         <v>923833</v>
@@ -11689,15 +11701,15 @@
         <v>8</v>
       </c>
       <c r="F428" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G428" s="2">
         <v>5192017</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B429" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C429" s="2">
         <v>922021</v>
@@ -11709,15 +11721,15 @@
         <v>143</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G429" s="2">
         <v>4092017</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B430" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C430" s="2">
         <v>933535</v>
@@ -11735,9 +11747,9 @@
         <v>4242017</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B431" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C431" s="2">
         <v>902935</v>
@@ -11749,15 +11761,15 @@
         <v>23</v>
       </c>
       <c r="F431" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G431" s="2">
         <v>5032017</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B432" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C432" s="2">
         <v>909312</v>
@@ -11769,15 +11781,15 @@
         <v>23</v>
       </c>
       <c r="F432" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G432" s="2">
         <v>5232017</v>
       </c>
     </row>
-    <row r="433" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B433" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C433" s="2">
         <v>909037</v>
@@ -11789,15 +11801,15 @@
         <v>23</v>
       </c>
       <c r="F433" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G433" s="2">
         <v>5082017</v>
       </c>
     </row>
-    <row r="434" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B434" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C434" s="2">
         <v>904471</v>
@@ -11809,13 +11821,13 @@
         <v>23</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G434" s="2">
         <v>5102017</v>
       </c>
     </row>
-    <row r="435" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B435" s="2" t="s">
         <v>240</v>
       </c>
@@ -11829,15 +11841,15 @@
         <v>23</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G435" s="2">
         <v>5162017</v>
       </c>
     </row>
-    <row r="436" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B436" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C436" s="2">
         <v>917687</v>
@@ -11855,9 +11867,9 @@
         <v>5162017</v>
       </c>
     </row>
-    <row r="437" spans="2:7" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B437" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C437" s="2">
         <v>934732</v>

--- a/error_report/Error Report Inpatient.xlsx
+++ b/error_report/Error Report Inpatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="757">
   <si>
     <t>05/05 to 05/11</t>
   </si>
@@ -1908,30 +1908,9 @@
     <t>No EX code on Denied</t>
   </si>
   <si>
-    <t>Cert Entered - Voided After</t>
-  </si>
-  <si>
-    <t>Cert Entered - No Services</t>
-  </si>
-  <si>
-    <t>No EX Code</t>
-  </si>
-  <si>
-    <t>Only Cert Entered - Not Voided</t>
-  </si>
-  <si>
-    <t>Dates Mismatch - Data Entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cert Entered - No Auth Svcs</t>
-  </si>
-  <si>
     <t>Dupe of Obs</t>
   </si>
   <si>
-    <t>Voided Out - Unknown</t>
-  </si>
-  <si>
     <t>000086252-01</t>
   </si>
   <si>
@@ -2298,10 +2277,16 @@
     <t>Fixed</t>
   </si>
   <si>
-    <t>Dates Overlapping</t>
-  </si>
-  <si>
     <t>Dupe or Overlap</t>
+  </si>
+  <si>
+    <t>No Service for Date</t>
+  </si>
+  <si>
+    <t>Dates Overlap</t>
+  </si>
+  <si>
+    <t>Member Termed at Auth</t>
   </si>
 </sst>
 </file>
@@ -2349,7 +2334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2359,6 +2344,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2375,7 +2366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2395,9 +2386,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2406,6 +2394,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2713,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="F260" sqref="F260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2758,362 +2770,362 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="9">
         <v>946686</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="9">
         <v>917905</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="13">
         <v>42837</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>760</v>
+      <c r="H2" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>947249</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="9">
         <v>936475</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="13">
         <v>42839</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>760</v>
+      <c r="H3" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>917905</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="9">
         <v>917905</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="13">
         <v>42843</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="9" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>920553</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="9">
         <v>936409</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>629</v>
+      <c r="H5" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="9">
         <v>939409</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="9">
         <v>939409</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="13">
         <v>42850</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="9" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="9">
         <v>948000</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="9">
         <v>936475</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="13">
         <v>42488</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>760</v>
+      <c r="H7" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <v>945268</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="9">
         <v>936475</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="13">
         <v>42773</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>760</v>
+      <c r="H8" s="9" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="9">
         <v>910639</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="9">
         <v>903408</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="13">
         <v>42781</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>760</v>
+      <c r="H9" s="9" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="9">
         <v>911023</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="9">
         <v>915731</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="13">
         <v>42793</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>760</v>
+      <c r="H10" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>935086</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="9">
         <v>936439</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>629</v>
+      <c r="H11" s="8" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="11">
         <v>920534</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="11">
         <v>920534</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>629</v>
+      <c r="H12" s="10" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="9">
         <v>903798</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="9">
         <v>912043</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>629</v>
+      <c r="H13" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="9">
         <v>947611</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="9">
         <v>947611</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>629</v>
+      <c r="H14" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="9">
         <v>913771</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="9">
         <v>900155</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>629</v>
+      <c r="H15" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="9">
         <v>937585</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="9">
         <v>920184</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="13">
         <v>42808</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>758</v>
+      <c r="H16" s="8" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3121,1295 +3133,1295 @@
       <c r="B17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="11">
         <v>902070</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="11">
         <v>904635</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>629</v>
+      <c r="H17" s="10" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="9">
         <v>903807</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="9">
         <v>936497</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="13">
         <v>42810</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>760</v>
+      <c r="H18" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="9">
         <v>917687</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="9">
         <v>936416</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="13">
         <v>42809</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>760</v>
+      <c r="H19" s="9" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="9">
         <v>921985</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="9">
         <v>936469</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="9" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="9">
         <v>910893</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="9">
         <v>920176</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="13">
         <v>42860</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="9" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="9">
         <v>920184</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="9">
         <v>920534</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>629</v>
+      <c r="H22" s="8" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="9">
         <v>933409</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="9">
         <v>906239</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="13">
         <v>42808</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>759</v>
+      <c r="H23" s="8" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="11">
         <v>907047</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="11">
         <v>936497</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="12">
         <v>42813</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>759</v>
+      <c r="H24" s="10" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="11">
         <v>933409</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="11">
         <v>906239</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="12">
         <v>42818</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>759</v>
+      <c r="H25" s="10" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="11">
         <v>908708</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="11">
         <v>933332</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="12">
         <v>42822</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>759</v>
+      <c r="H26" s="10" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="9">
         <v>901308</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="9">
         <v>900155</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="13">
         <v>42823</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>760</v>
+      <c r="H27" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="9">
         <v>907044</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="9">
         <v>927026</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="13">
         <v>42823</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>760</v>
+      <c r="H28" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="9">
         <v>903999</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="9">
         <v>945237</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="13">
         <v>42827</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>760</v>
+      <c r="H29" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="11">
         <v>908708</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="11">
         <v>904201</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="12">
         <v>42829</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>759</v>
+      <c r="H30" s="10" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="9">
         <v>911689</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="9">
         <v>923693</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="13">
         <v>42828</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>758</v>
+      <c r="H31" s="8" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="9">
         <v>937101</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="9">
         <v>920184</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="13">
         <v>42861</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>633</v>
+      <c r="H32" s="8" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="9">
         <v>948831</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="9">
         <v>936400</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="13">
         <v>42832</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>760</v>
+      <c r="H33" s="9" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="9">
         <v>928193</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="9">
         <v>906239</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="13">
         <v>42835</v>
       </c>
-      <c r="H34" s="7" t="s">
-        <v>760</v>
+      <c r="H34" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="9">
         <v>937109</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="9">
         <v>936439</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="13">
         <v>42836</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>760</v>
+      <c r="H35" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="9">
         <v>906079</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="9">
         <v>920184</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="13">
         <v>42845</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>760</v>
+      <c r="H36" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="9">
         <v>918203</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="9">
         <v>936421</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="13">
         <v>42836</v>
       </c>
-      <c r="H37" s="7" t="s">
-        <v>760</v>
+      <c r="H37" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="11">
         <v>911060</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="11">
         <v>906239</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="12">
         <v>42838</v>
       </c>
-      <c r="H38" s="7" t="s">
-        <v>759</v>
+      <c r="H38" s="10" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="9">
         <v>934629</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="9">
         <v>934629</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="7" t="s">
-        <v>760</v>
+      <c r="H39" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="9">
         <v>911533</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="9">
         <v>936416</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="13">
         <v>42839</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="9" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="9">
         <v>947084</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="9">
         <v>936461</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="13">
         <v>42841</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="8" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="9">
         <v>904970</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="9">
         <v>999999</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="7" t="s">
-        <v>759</v>
+      <c r="H42" s="8" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="9">
         <v>948317</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="9">
         <v>906699</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="13">
         <v>42839</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>761</v>
+      <c r="H43" s="8" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="9">
         <v>947610</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="9">
         <v>936421</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="13">
         <v>42839</v>
       </c>
-      <c r="H44" s="7" t="s">
-        <v>760</v>
+      <c r="H44" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="11">
         <v>923188</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="11">
         <v>936402</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="12">
         <v>42842</v>
       </c>
-      <c r="H45" s="7" t="s">
-        <v>759</v>
+      <c r="H45" s="10" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="9">
         <v>907238</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="9">
         <v>906699</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="13">
         <v>42839</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="9" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="9">
         <v>934844</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="9">
         <v>948436</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="13">
         <v>42635</v>
       </c>
-      <c r="H47" s="6" t="s">
-        <v>634</v>
+      <c r="H47" s="8" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="11">
         <v>936477</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="11">
         <v>936477</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="6" t="s">
-        <v>629</v>
+      <c r="H48" s="10" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="11">
         <v>902070</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="11">
         <v>904635</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="6" t="s">
-        <v>629</v>
+      <c r="H49" s="10" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="9">
         <v>999999999</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="9">
         <v>920306</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="6" t="s">
-        <v>629</v>
+      <c r="H50" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="11">
         <v>913830</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="11">
         <v>936416</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="12">
         <v>42848</v>
       </c>
-      <c r="H51" s="6" t="s">
-        <v>632</v>
+      <c r="H51" s="10" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="11">
         <v>911533</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="11">
         <v>936446</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="6" t="s">
-        <v>629</v>
+      <c r="H52" s="10" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="9">
         <v>925373</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="9">
         <v>936486</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="13">
         <v>42856</v>
       </c>
-      <c r="H53" s="6" t="s">
-        <v>630</v>
+      <c r="H53" s="8" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="11">
         <v>922113</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="11">
         <v>929440</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="12">
         <v>42849</v>
       </c>
-      <c r="H54" s="6" t="s">
-        <v>632</v>
+      <c r="H54" s="10" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="11">
         <v>912283</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="11">
         <v>936446</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="6" t="s">
-        <v>629</v>
+      <c r="H55" s="10" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="9">
         <v>912793</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="9">
         <v>936416</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="13">
         <v>42853</v>
       </c>
-      <c r="H56" s="6" t="s">
-        <v>760</v>
+      <c r="H56" s="9" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="9">
         <v>902363</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="9">
         <v>906699</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="13">
         <v>42854</v>
       </c>
-      <c r="H57" s="6" t="s">
-        <v>760</v>
+      <c r="H57" s="9" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="9">
         <v>911533</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="9">
         <v>936416</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="13">
         <v>42853</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="9" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="9">
         <v>922046</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="9">
         <v>920580</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="13">
         <v>42488</v>
       </c>
-      <c r="H59" s="6" t="s">
-        <v>760</v>
+      <c r="H59" s="9" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="9">
         <v>914385</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="9">
         <v>936416</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="13">
         <v>42857</v>
       </c>
-      <c r="H60" s="6" t="s">
-        <v>633</v>
+      <c r="H60" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="9">
         <v>904235</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="9">
         <v>936439</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="13">
         <v>42853</v>
       </c>
-      <c r="H61" s="6" t="s">
-        <v>635</v>
+      <c r="H61" s="8" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="9">
         <v>935114</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="9">
         <v>920184</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="13">
         <v>42856</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="H62" s="9" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="9">
         <v>936932</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="9">
         <v>920157</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="13">
         <v>42857</v>
       </c>
-      <c r="H63" s="6" t="s">
-        <v>631</v>
+      <c r="H63" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="9">
         <v>943144</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="9">
         <v>920157</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="13">
         <v>42858</v>
       </c>
-      <c r="H64" s="6" t="s">
-        <v>631</v>
+      <c r="H64" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="9">
         <v>900736</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="9">
         <v>939279</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="13">
         <v>42857</v>
       </c>
-      <c r="H65" s="6" t="s">
-        <v>760</v>
+      <c r="H65" s="9" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="9">
         <v>902070</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="9">
         <v>904635</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="13">
         <v>42858</v>
       </c>
-      <c r="H66" s="6" t="s">
-        <v>760</v>
+      <c r="H66" s="9" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="9">
         <v>922046</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="9">
         <v>920580</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="13">
         <v>42861</v>
       </c>
-      <c r="H67" s="6" t="s">
-        <v>636</v>
+      <c r="H67" s="9" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="9">
         <v>936922</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="9">
         <v>920184</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="13">
         <v>42860</v>
       </c>
-      <c r="H68" s="6" t="s">
-        <v>633</v>
+      <c r="H68" s="8" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="9">
         <v>944179</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="9">
         <v>936409</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="F69" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69" s="13">
         <v>42863</v>
       </c>
-      <c r="H69" s="6" t="s">
-        <v>633</v>
+      <c r="H69" s="8" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="9">
         <v>903798</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="9">
         <v>912043</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="13">
         <v>42866</v>
       </c>
-      <c r="H70" s="6" t="s">
-        <v>637</v>
+      <c r="H70" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -4429,7 +4441,7 @@
       <c r="F71" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="7">
         <v>42773</v>
       </c>
       <c r="H71" s="6"/>
@@ -4451,7 +4463,7 @@
       <c r="F72" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="7">
         <v>42785</v>
       </c>
       <c r="H72" s="6"/>
@@ -4473,7 +4485,7 @@
       <c r="F73" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="7">
         <v>42787</v>
       </c>
       <c r="H73" s="6"/>
@@ -4495,7 +4507,7 @@
       <c r="F74" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="7">
         <v>42821</v>
       </c>
       <c r="H74" s="6"/>
@@ -4517,7 +4529,7 @@
       <c r="F75" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G75" s="7">
         <v>42790</v>
       </c>
       <c r="H75" s="6"/>
@@ -4539,7 +4551,7 @@
       <c r="F76" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="7">
         <v>42795</v>
       </c>
       <c r="H76" s="6"/>
@@ -4561,7 +4573,7 @@
       <c r="F77" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="7">
         <v>42795</v>
       </c>
       <c r="H77" s="6"/>
@@ -4583,7 +4595,7 @@
       <c r="F78" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="7">
         <v>42797</v>
       </c>
       <c r="H78" s="6"/>
@@ -4605,7 +4617,7 @@
       <c r="F79" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79" s="7">
         <v>42801</v>
       </c>
       <c r="H79" s="6"/>
@@ -4627,7 +4639,7 @@
       <c r="F80" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G80" s="7">
         <v>42796</v>
       </c>
       <c r="H80" s="6"/>
@@ -4649,7 +4661,7 @@
       <c r="F81" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G81" s="7">
         <v>42804</v>
       </c>
       <c r="H81" s="6"/>
@@ -4671,7 +4683,7 @@
       <c r="F82" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G82" s="7">
         <v>42802</v>
       </c>
       <c r="H82" s="6"/>
@@ -4693,7 +4705,7 @@
       <c r="F83" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G83" s="7">
         <v>42850</v>
       </c>
       <c r="H83" s="6"/>
@@ -4715,7 +4727,7 @@
       <c r="F84" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G84" s="7">
         <v>42803</v>
       </c>
       <c r="H84" s="6"/>
@@ -4737,7 +4749,7 @@
       <c r="F85" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G85" s="7">
         <v>42804</v>
       </c>
       <c r="H85" s="6"/>
@@ -4759,7 +4771,7 @@
       <c r="F86" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G86" s="7">
         <v>42808</v>
       </c>
       <c r="H86" s="6"/>
@@ -8381,7 +8393,7 @@
         <v>4302017</v>
       </c>
     </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B257" s="2" t="s">
         <v>470</v>
       </c>
@@ -8401,7 +8413,7 @@
         <v>4302017</v>
       </c>
     </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" s="2" t="s">
         <v>472</v>
       </c>
@@ -8421,7 +8433,7 @@
         <v>4302017</v>
       </c>
     </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B259" s="2" t="s">
         <v>384</v>
       </c>
@@ -8441,7 +8453,7 @@
         <v>5012017</v>
       </c>
     </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B260" s="2" t="s">
         <v>475</v>
       </c>
@@ -8461,7 +8473,7 @@
         <v>5032017</v>
       </c>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B261" s="2" t="s">
         <v>476</v>
       </c>
@@ -8481,7 +8493,7 @@
         <v>4072017</v>
       </c>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B262" s="2" t="s">
         <v>478</v>
       </c>
@@ -8501,7 +8513,7 @@
         <v>4102017</v>
       </c>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="2" t="s">
         <v>78</v>
       </c>
@@ -8521,7 +8533,7 @@
         <v>4202017</v>
       </c>
     </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B264" s="2" t="s">
         <v>481</v>
       </c>
@@ -8541,127 +8553,145 @@
         <v>4272017</v>
       </c>
     </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B265" s="2" t="s">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B265" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="C265" s="2">
+      <c r="C265" s="15">
         <v>943674</v>
       </c>
-      <c r="D265" s="2">
+      <c r="D265" s="15">
         <v>923693</v>
       </c>
-      <c r="E265" s="2" t="s">
+      <c r="E265" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F265" s="2" t="s">
+      <c r="F265" s="15" t="s">
         <v>484</v>
       </c>
-      <c r="G265" s="2">
+      <c r="G265" s="15">
         <v>4192017</v>
       </c>
-    </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B266" s="2" t="s">
+      <c r="H265" s="14" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B266" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="C266" s="2">
+      <c r="C266" s="17">
         <v>949538</v>
       </c>
-      <c r="D266" s="2">
+      <c r="D266" s="17">
         <v>949538</v>
       </c>
-      <c r="E266" s="2" t="s">
+      <c r="E266" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F266" s="2" t="s">
+      <c r="F266" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="G266" s="2">
+      <c r="G266" s="17">
         <v>4262017</v>
       </c>
-    </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B267" s="2" t="s">
+      <c r="H266" s="16" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B267" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="C267" s="2">
+      <c r="C267" s="17">
         <v>935727</v>
       </c>
-      <c r="D267" s="2">
+      <c r="D267" s="17">
         <v>920176</v>
       </c>
-      <c r="E267" s="2" t="s">
+      <c r="E267" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F267" s="2" t="s">
+      <c r="F267" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="G267" s="2">
+      <c r="G267" s="17">
         <v>5102017</v>
       </c>
-    </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B268" s="2" t="s">
+      <c r="H267" s="16" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B268" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="C268" s="2">
+      <c r="C268" s="17">
         <v>922113</v>
       </c>
-      <c r="D268" s="2">
+      <c r="D268" s="17">
         <v>936469</v>
       </c>
-      <c r="E268" s="2" t="s">
+      <c r="E268" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F268" s="2" t="s">
+      <c r="F268" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="G268" s="2">
+      <c r="G268" s="17">
         <v>4272017</v>
       </c>
-    </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B269" s="2" t="s">
+      <c r="H268" s="16" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B269" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="C269" s="2">
+      <c r="C269" s="15">
         <v>944565</v>
       </c>
-      <c r="D269" s="2">
+      <c r="D269" s="15">
         <v>936475</v>
       </c>
-      <c r="E269" s="2" t="s">
+      <c r="E269" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F269" s="2" t="s">
+      <c r="F269" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="G269" s="2">
+      <c r="G269" s="15">
         <v>4292017</v>
       </c>
-    </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B270" s="2" t="s">
+      <c r="H269" s="14" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B270" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="C270" s="2">
+      <c r="C270" s="15">
         <v>917687</v>
       </c>
-      <c r="D270" s="2">
+      <c r="D270" s="15">
         <v>920157</v>
       </c>
-      <c r="E270" s="2" t="s">
+      <c r="E270" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F270" s="2" t="s">
+      <c r="F270" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="G270" s="2">
+      <c r="G270" s="15">
         <v>5042017</v>
       </c>
-    </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H270" s="14" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B271" s="2" t="s">
         <v>494</v>
       </c>
@@ -8681,7 +8711,7 @@
         <v>5052017</v>
       </c>
     </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B272" s="2" t="s">
         <v>495</v>
       </c>
@@ -10354,7 +10384,7 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B359" s="2" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="C359" s="2">
         <v>948317</v>
@@ -10366,7 +10396,7 @@
         <v>8</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="G359" s="2">
         <v>2052017</v>
@@ -10374,7 +10404,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B360" s="2" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C360" s="2">
         <v>922026</v>
@@ -10394,7 +10424,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B361" s="2" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C361" s="2">
         <v>921316</v>
@@ -10414,7 +10444,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B362" s="2" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="C362" s="2">
         <v>904235</v>
@@ -10434,7 +10464,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B363" s="2" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="C363" s="2">
         <v>937254</v>
@@ -10446,7 +10476,7 @@
         <v>8</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="G363" s="2">
         <v>5162017</v>
@@ -10454,7 +10484,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B364" s="2" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="C364" s="2">
         <v>911533</v>
@@ -10466,7 +10496,7 @@
         <v>8</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="G364" s="2">
         <v>5162017</v>
@@ -10474,7 +10504,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B365" s="2" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="C365" s="2">
         <v>947810</v>
@@ -10486,7 +10516,7 @@
         <v>8</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="G365" s="2">
         <v>5162017</v>
@@ -10494,7 +10524,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B366" s="2" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="C366" s="2">
         <v>916638</v>
@@ -10506,7 +10536,7 @@
         <v>143</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G366" s="2">
         <v>3282017</v>
@@ -10534,7 +10564,7 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B368" s="2" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C368" s="2">
         <v>904131</v>
@@ -10546,7 +10576,7 @@
         <v>143</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="G368" s="2">
         <v>4072017</v>
@@ -10566,7 +10596,7 @@
         <v>143</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="G369" s="2">
         <v>4122017</v>
@@ -10574,7 +10604,7 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B370" s="4" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C370" s="2">
         <v>907783</v>
@@ -10586,7 +10616,7 @@
         <v>143</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="G370" s="2">
         <v>4132017</v>
@@ -10594,7 +10624,7 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B371" s="2" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C371" s="2">
         <v>936386</v>
@@ -10606,7 +10636,7 @@
         <v>143</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="G371" s="2">
         <v>5092017</v>
@@ -10614,7 +10644,7 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B372" s="2" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="C372" s="2">
         <v>904131</v>
@@ -10626,7 +10656,7 @@
         <v>143</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="G372" s="2">
         <v>5112017</v>
@@ -10634,7 +10664,7 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B373" s="4" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="C373" s="2">
         <v>937327</v>
@@ -10654,7 +10684,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B374" s="2" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C374" s="2">
         <v>926511</v>
@@ -10666,7 +10696,7 @@
         <v>23</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="G374" s="2">
         <v>5152017</v>
@@ -10674,7 +10704,7 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B375" s="2" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C375" s="2">
         <v>913771</v>
@@ -10686,7 +10716,7 @@
         <v>23</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="G375" s="2" t="s">
         <v>17</v>
@@ -10694,7 +10724,7 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B376" s="2" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="C376" s="2">
         <v>949538</v>
@@ -10714,7 +10744,7 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B377" s="2" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="C377" s="2">
         <v>999999</v>
@@ -10734,7 +10764,7 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B378" s="2" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="C378" s="2">
         <v>911023</v>
@@ -10746,7 +10776,7 @@
         <v>23</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="G378" s="2" t="s">
         <v>17</v>
@@ -10799,7 +10829,7 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B382" s="2" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="C382" s="2">
         <v>913747</v>
@@ -10819,7 +10849,7 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B383" s="2" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="C383" s="2">
         <v>927682</v>
@@ -10831,7 +10861,7 @@
         <v>8</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="G383" s="2">
         <v>5152017</v>
@@ -10839,7 +10869,7 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B384" s="2" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="C384" s="2">
         <v>926068</v>
@@ -10851,7 +10881,7 @@
         <v>8</v>
       </c>
       <c r="F384" s="4" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="G384" s="2">
         <v>5162017</v>
@@ -10859,7 +10889,7 @@
     </row>
     <row r="385" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B385" s="2" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="C385" s="2">
         <v>942960</v>
@@ -10871,7 +10901,7 @@
         <v>8</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="G385" s="2">
         <v>5202017</v>
@@ -10879,7 +10909,7 @@
     </row>
     <row r="386" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B386" s="2" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="C386" s="2">
         <v>936729</v>
@@ -10891,7 +10921,7 @@
         <v>8</v>
       </c>
       <c r="F386" s="2" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="G386" s="2">
         <v>5202017</v>
@@ -10911,7 +10941,7 @@
         <v>143</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="G387" s="2">
         <v>3072017</v>
@@ -10919,7 +10949,7 @@
     </row>
     <row r="388" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B388" s="2" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="C388" s="2">
         <v>900819</v>
@@ -10931,7 +10961,7 @@
         <v>143</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="G388" s="2">
         <v>3302017</v>
@@ -10959,7 +10989,7 @@
     </row>
     <row r="390" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B390" s="2" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="C390" s="2">
         <v>914714</v>
@@ -10971,7 +11001,7 @@
         <v>143</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="G390" s="2">
         <v>4112017</v>
@@ -10979,7 +11009,7 @@
     </row>
     <row r="391" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B391" s="2" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="C391" s="2">
         <v>925605</v>
@@ -10991,7 +11021,7 @@
         <v>143</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="G391" s="2">
         <v>4112017</v>
@@ -10999,7 +11029,7 @@
     </row>
     <row r="392" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B392" s="2" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="C392" s="2">
         <v>913181</v>
@@ -11019,7 +11049,7 @@
     </row>
     <row r="393" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B393" s="2" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="C393" s="2">
         <v>921419</v>
@@ -11039,7 +11069,7 @@
     </row>
     <row r="394" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B394" s="2" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="C394" s="2">
         <v>921419</v>
@@ -11059,7 +11089,7 @@
     </row>
     <row r="395" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B395" s="2" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="C395" s="2">
         <v>935546</v>
@@ -11071,7 +11101,7 @@
         <v>143</v>
       </c>
       <c r="F395" s="2" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="G395" s="2">
         <v>4272017</v>
@@ -11079,7 +11109,7 @@
     </row>
     <row r="396" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B396" s="2" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C396" s="2">
         <v>914714</v>
@@ -11091,7 +11121,7 @@
         <v>143</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="G396" s="2">
         <v>4282017</v>
@@ -11099,7 +11129,7 @@
     </row>
     <row r="397" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B397" s="2" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="C397" s="2">
         <v>936846</v>
@@ -11111,7 +11141,7 @@
         <v>143</v>
       </c>
       <c r="F397" s="2" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="G397" s="2">
         <v>4272017</v>
@@ -11119,7 +11149,7 @@
     </row>
     <row r="398" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B398" s="2" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="C398" s="2">
         <v>916638</v>
@@ -11139,7 +11169,7 @@
     </row>
     <row r="399" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B399" s="2" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="C399" s="2">
         <v>900504</v>
@@ -11151,7 +11181,7 @@
         <v>143</v>
       </c>
       <c r="F399" s="2" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="G399" s="2">
         <v>5012017</v>
@@ -11159,7 +11189,7 @@
     </row>
     <row r="400" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B400" s="2" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="C400" s="2">
         <v>921419</v>
@@ -11171,7 +11201,7 @@
         <v>143</v>
       </c>
       <c r="F400" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="G400" s="2">
         <v>5012017</v>
@@ -11179,7 +11209,7 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B401" s="2" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="C401" s="2">
         <v>901387</v>
@@ -11191,7 +11221,7 @@
         <v>143</v>
       </c>
       <c r="F401" s="2" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="G401" s="2">
         <v>5032017</v>
@@ -11199,7 +11229,7 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B402" s="2" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="C402" s="2">
         <v>904883</v>
@@ -11211,7 +11241,7 @@
         <v>143</v>
       </c>
       <c r="F402" s="2" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="G402" s="2">
         <v>4272017</v>
@@ -11219,7 +11249,7 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B403" s="2" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C403" s="2">
         <v>906519</v>
@@ -11231,15 +11261,15 @@
         <v>143</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B404" s="2" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C404" s="2">
         <v>921419</v>
@@ -11251,7 +11281,7 @@
         <v>143</v>
       </c>
       <c r="F404" s="2" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="G404" s="2">
         <v>5122017</v>
@@ -11259,7 +11289,7 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B405" s="2" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="C405" s="2">
         <v>916638</v>
@@ -11271,7 +11301,7 @@
         <v>143</v>
       </c>
       <c r="F405" s="2" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="G405" s="2">
         <v>4272017</v>
@@ -11279,7 +11309,7 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B406" s="2" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="C406" s="2">
         <v>930272</v>
@@ -11299,7 +11329,7 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B407" s="2" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="C407" s="2">
         <v>936019</v>
@@ -11311,7 +11341,7 @@
         <v>23</v>
       </c>
       <c r="F407" s="2" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G407" s="2">
         <v>5192017</v>
@@ -11359,7 +11389,7 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B410" s="2" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="C410" s="2">
         <v>936475</v>
@@ -11371,7 +11401,7 @@
         <v>23</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G410" s="2">
         <v>5152017</v>
@@ -11384,7 +11414,7 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B412" s="2" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C412" s="2">
         <v>946140</v>
@@ -11396,7 +11426,7 @@
         <v>8</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="G412" s="2">
         <v>3262017</v>
@@ -11404,7 +11434,7 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B413" s="2" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="C413" s="2">
         <v>935114</v>
@@ -11424,7 +11454,7 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B414" s="2" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C414" s="2">
         <v>912896</v>
@@ -11436,7 +11466,7 @@
         <v>8</v>
       </c>
       <c r="F414" s="2" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="G414" s="2">
         <v>5202017</v>
@@ -11444,7 +11474,7 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B415" s="2" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="C415" s="2">
         <v>937001</v>
@@ -11456,7 +11486,7 @@
         <v>8</v>
       </c>
       <c r="F415" s="2" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="G415" s="2">
         <v>5222017</v>
@@ -11464,7 +11494,7 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B416" s="2" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="C416" s="2">
         <v>937361</v>
@@ -11476,7 +11506,7 @@
         <v>143</v>
       </c>
       <c r="F416" s="2" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="G416" s="2">
         <v>3052017</v>
@@ -11484,7 +11514,7 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B417" s="2" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="C417" s="2">
         <v>937376</v>
@@ -11496,7 +11526,7 @@
         <v>143</v>
       </c>
       <c r="F417" s="2" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="G417" s="2">
         <v>3022017</v>
@@ -11504,7 +11534,7 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B418" s="2" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="C418" s="2">
         <v>937109</v>
@@ -11516,7 +11546,7 @@
         <v>143</v>
       </c>
       <c r="F418" s="2" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="G418" s="2">
         <v>3092017</v>
@@ -11524,7 +11554,7 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B419" s="2" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="C419" s="2">
         <v>903552</v>
@@ -11544,7 +11574,7 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B420" s="2" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C420" s="2">
         <v>927490</v>
@@ -11556,7 +11586,7 @@
         <v>143</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="G420" s="2">
         <v>4102017</v>
@@ -11564,7 +11594,7 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B421" s="2" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="C421" s="2">
         <v>936386</v>
@@ -11576,7 +11606,7 @@
         <v>143</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="G421" s="2">
         <v>4192017</v>
@@ -11584,7 +11614,7 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B422" s="2" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="C422" s="2">
         <v>935040</v>
@@ -11596,7 +11626,7 @@
         <v>143</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="G422" s="2">
         <v>4302017</v>
@@ -11604,7 +11634,7 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B423" s="2" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="C423" s="2">
         <v>935040</v>
@@ -11616,7 +11646,7 @@
         <v>143</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G423" s="2">
         <v>5082017</v>
@@ -11624,7 +11654,7 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B424" s="2" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="C424" s="2">
         <v>936399</v>
@@ -11644,7 +11674,7 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B425" s="2" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="C425" s="2">
         <v>901100</v>
@@ -11656,7 +11686,7 @@
         <v>23</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="G425" s="2">
         <v>5042017</v>
@@ -11669,7 +11699,7 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B427" s="2" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="C427" s="2">
         <v>930025</v>
@@ -11681,7 +11711,7 @@
         <v>8</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="G427" s="2">
         <v>3182017</v>
@@ -11689,7 +11719,7 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B428" s="2" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="C428" s="4">
         <v>923833</v>
@@ -11701,7 +11731,7 @@
         <v>8</v>
       </c>
       <c r="F428" s="2" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="G428" s="2">
         <v>5192017</v>
@@ -11709,7 +11739,7 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B429" s="2" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="C429" s="2">
         <v>922021</v>
@@ -11721,7 +11751,7 @@
         <v>143</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="G429" s="2">
         <v>4092017</v>
@@ -11729,7 +11759,7 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B430" s="2" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="C430" s="2">
         <v>933535</v>
@@ -11749,7 +11779,7 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B431" s="2" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="C431" s="2">
         <v>902935</v>
@@ -11761,7 +11791,7 @@
         <v>23</v>
       </c>
       <c r="F431" s="2" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="G431" s="2">
         <v>5032017</v>
@@ -11769,7 +11799,7 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B432" s="2" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="C432" s="2">
         <v>909312</v>
@@ -11781,7 +11811,7 @@
         <v>23</v>
       </c>
       <c r="F432" s="2" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="G432" s="2">
         <v>5232017</v>
@@ -11789,7 +11819,7 @@
     </row>
     <row r="433" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B433" s="2" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="C433" s="2">
         <v>909037</v>
@@ -11801,7 +11831,7 @@
         <v>23</v>
       </c>
       <c r="F433" s="2" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G433" s="2">
         <v>5082017</v>
@@ -11809,7 +11839,7 @@
     </row>
     <row r="434" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B434" s="2" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="C434" s="2">
         <v>904471</v>
@@ -11821,7 +11851,7 @@
         <v>23</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G434" s="2">
         <v>5102017</v>
@@ -11841,7 +11871,7 @@
         <v>23</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="G435" s="2">
         <v>5162017</v>
@@ -11849,7 +11879,7 @@
     </row>
     <row r="436" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B436" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C436" s="2">
         <v>917687</v>
@@ -11869,7 +11899,7 @@
     </row>
     <row r="437" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B437" s="2" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="C437" s="2">
         <v>934732</v>

--- a/error_report/Error Report Inpatient.xlsx
+++ b/error_report/Error Report Inpatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="758">
   <si>
     <t>05/05 to 05/11</t>
   </si>
@@ -2287,6 +2287,9 @@
   </si>
   <si>
     <t>Member Termed at Auth</t>
+  </si>
+  <si>
+    <t>Swing Bed No Total Amount</t>
   </si>
 </sst>
 </file>
@@ -2366,7 +2369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2384,9 +2387,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2725,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="F260" sqref="F260"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2770,3353 +2770,3507 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>946686</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>917905</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>42837</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>947249</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>936475</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>42839</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>917905</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>917905</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>42843</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>920553</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>936409</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>939409</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>939409</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>42850</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>948000</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>936475</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>42488</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>945268</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>936475</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>42773</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>910639</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>903408</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>42781</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>911023</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>915731</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>42793</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>935086</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>936439</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>920534</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>920534</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>903798</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>912043</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>947611</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>947611</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>913771</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>900155</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>937585</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>920184</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <v>42808</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>902070</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>904635</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>903807</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>936497</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>42810</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>917687</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>936416</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <v>42809</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>921985</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>936469</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>910893</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>920176</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <v>42860</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>920184</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>920534</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>933409</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>906239</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="12">
         <v>42808</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>907047</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>936497</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <v>42813</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="9" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>933409</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>906239</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <v>42818</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="9" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>908708</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>933332</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="11">
         <v>42822</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>901308</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>900155</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="12">
         <v>42823</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>907044</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>927026</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="12">
         <v>42823</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>903999</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>945237</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="12">
         <v>42827</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>908708</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <v>904201</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="11">
         <v>42829</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="9" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>911689</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>923693</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="12">
         <v>42828</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="7" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>937101</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>920184</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="12">
         <v>42861</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="7" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>948831</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>936400</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="12">
         <v>42832</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="8" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>928193</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>906239</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="12">
         <v>42835</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>937109</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>936439</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="12">
         <v>42836</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>906079</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>920184</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="12">
         <v>42845</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>918203</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>936421</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="12">
         <v>42836</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="10">
         <v>911060</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="10">
         <v>906239</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="11">
         <v>42838</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>934629</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>934629</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>911533</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>936416</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="12">
         <v>42839</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="8" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>947084</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>936461</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="12">
         <v>42841</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="7" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>904970</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>999999</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="7" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>948317</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>906699</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="12">
         <v>42839</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="7" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>947610</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>936421</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="12">
         <v>42839</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="10">
         <v>923188</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="10">
         <v>936402</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="11">
         <v>42842</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="9" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>907238</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>906699</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="12">
         <v>42839</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="8" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>934844</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="8">
         <v>948436</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="12">
         <v>42635</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="7" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="10">
         <v>936477</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="10">
         <v>936477</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H48" s="9" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="10">
         <v>902070</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="10">
         <v>904635</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H49" s="9" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>999999999</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="8">
         <v>920306</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H50" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="10">
         <v>913830</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="10">
         <v>936416</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="11">
         <v>42848</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="H51" s="9" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="10">
         <v>911533</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="10">
         <v>936446</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="H52" s="9" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>925373</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="8">
         <v>936486</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="12">
         <v>42856</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="7" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="10">
         <v>922113</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="10">
         <v>929440</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="11">
         <v>42849</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="H54" s="9" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="10">
         <v>912283</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="10">
         <v>936446</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="9" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <v>912793</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="8">
         <v>936416</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="12">
         <v>42853</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="H56" s="8" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <v>902363</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="8">
         <v>906699</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="12">
         <v>42854</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H57" s="8" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <v>911533</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="8">
         <v>936416</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="12">
         <v>42853</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="H58" s="8" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>922046</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="8">
         <v>920580</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="12">
         <v>42488</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H59" s="8" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>914385</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="8">
         <v>936416</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G60" s="12">
         <v>42857</v>
       </c>
-      <c r="H60" s="8" t="s">
+      <c r="H60" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="8">
         <v>904235</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="8">
         <v>936439</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="12">
         <v>42853</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H61" s="7" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <v>935114</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="8">
         <v>920184</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="12">
         <v>42856</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H62" s="8" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="8">
         <v>936932</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="8">
         <v>920157</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="12">
         <v>42857</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="H63" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="8">
         <v>943144</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="8">
         <v>920157</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F64" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="12">
         <v>42858</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H64" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="8">
         <v>900736</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="8">
         <v>939279</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="12">
         <v>42857</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="H65" s="8" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="8">
         <v>902070</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="8">
         <v>904635</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="12">
         <v>42858</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" s="8" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="8">
         <v>922046</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="8">
         <v>920580</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="12">
         <v>42861</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H67" s="8" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="8">
         <v>936922</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="8">
         <v>920184</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G68" s="12">
         <v>42860</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H68" s="7" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="8">
         <v>944179</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="8">
         <v>936409</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G69" s="12">
         <v>42863</v>
       </c>
-      <c r="H69" s="8" t="s">
+      <c r="H69" s="7" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="8">
         <v>903798</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="8">
         <v>912043</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G70" s="12">
         <v>42866</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="H70" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="8">
         <v>935546</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="8">
         <v>936533</v>
       </c>
-      <c r="E71" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F71" s="6" t="s">
+      <c r="E71" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="12">
         <v>42773</v>
       </c>
-      <c r="H71" s="6"/>
+      <c r="H71" s="7" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="8">
         <v>941835</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="8">
         <v>913334</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F72" s="6" t="s">
+      <c r="E72" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="12">
         <v>42785</v>
       </c>
-      <c r="H72" s="6"/>
+      <c r="H72" s="7" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="8">
         <v>900819</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="8">
         <v>936526</v>
       </c>
-      <c r="E73" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F73" s="6" t="s">
+      <c r="E73" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="12">
         <v>42787</v>
       </c>
-      <c r="H73" s="6"/>
+      <c r="H73" s="7" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="8">
         <v>927490</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="8">
         <v>913334</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F74" s="6" t="s">
+      <c r="E74" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="12">
         <v>42821</v>
       </c>
-      <c r="H74" s="6"/>
+      <c r="H74" s="7" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="10">
         <v>935696</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="10">
         <v>902590</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F75" s="6" t="s">
+      <c r="E75" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G75" s="11">
         <v>42790</v>
       </c>
-      <c r="H75" s="6"/>
+      <c r="H75" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="10">
         <v>936993</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="10">
         <v>939400</v>
       </c>
-      <c r="E76" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F76" s="6" t="s">
+      <c r="E76" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G76" s="11">
         <v>42795</v>
       </c>
-      <c r="H76" s="6"/>
+      <c r="H76" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="10">
         <v>908403</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="10">
         <v>942462</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F77" s="6" t="s">
+      <c r="E77" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F77" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G77" s="11">
         <v>42795</v>
       </c>
-      <c r="H77" s="6"/>
+      <c r="H77" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="10">
         <v>936993</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="10">
         <v>939400</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F78" s="6" t="s">
+      <c r="E78" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F78" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G78" s="11">
         <v>42797</v>
       </c>
-      <c r="H78" s="6"/>
+      <c r="H78" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="10">
         <v>928964</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="10">
         <v>928713</v>
       </c>
-      <c r="E79" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F79" s="6" t="s">
+      <c r="E79" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G79" s="11">
         <v>42801</v>
       </c>
-      <c r="H79" s="6"/>
+      <c r="H79" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="10">
         <v>908403</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="10">
         <v>942462</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F80" s="6" t="s">
+      <c r="E80" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F80" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G80" s="11">
         <v>42796</v>
       </c>
-      <c r="H80" s="6"/>
+      <c r="H80" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="8">
         <v>922103</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="8">
         <v>949769</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F81" s="6" t="s">
+      <c r="E81" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G81" s="12">
         <v>42804</v>
       </c>
-      <c r="H81" s="6"/>
+      <c r="H81" s="7" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="10">
         <v>905904</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="10">
         <v>920011</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F82" s="6" t="s">
+      <c r="E82" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G82" s="11">
         <v>42802</v>
       </c>
-      <c r="H82" s="6"/>
+      <c r="H82" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="10">
         <v>923381</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="10">
         <v>931795</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F83" s="6" t="s">
+      <c r="E83" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F83" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G83" s="11">
         <v>42850</v>
       </c>
-      <c r="H83" s="6"/>
+      <c r="H83" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="10">
         <v>935738</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="10">
         <v>939392</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F84" s="6" t="s">
+      <c r="E84" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F84" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G84" s="11">
         <v>42803</v>
       </c>
-      <c r="H84" s="6"/>
+      <c r="H84" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="10">
         <v>908403</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="10">
         <v>936528</v>
       </c>
-      <c r="E85" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F85" s="6" t="s">
+      <c r="E85" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F85" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G85" s="11">
         <v>42804</v>
       </c>
-      <c r="H85" s="6"/>
+      <c r="H85" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="8">
         <v>935078</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="8">
         <v>907244</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F86" s="6" t="s">
+      <c r="E86" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G86" s="12">
         <v>42808</v>
       </c>
-      <c r="H86" s="6"/>
+      <c r="H86" s="7" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="8">
         <v>923234</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="8">
         <v>923893</v>
       </c>
-      <c r="E87" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F87" s="6" t="s">
+      <c r="E87" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G87" s="8">
         <v>3172017</v>
       </c>
-      <c r="H87" s="6"/>
+      <c r="H87" s="7" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="8">
         <v>923234</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="8">
         <v>924191</v>
       </c>
-      <c r="E88" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F88" s="6" t="s">
+      <c r="E88" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F88" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="G88" s="6">
+      <c r="G88" s="8">
         <v>3302017</v>
       </c>
-      <c r="H88" s="6"/>
+      <c r="H88" s="7" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="10">
         <v>935738</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="10">
         <v>939392</v>
       </c>
-      <c r="E89" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F89" s="6" t="s">
+      <c r="E89" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F89" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G89" s="10">
         <v>3202017</v>
       </c>
-      <c r="H89" s="6"/>
+      <c r="H89" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="10">
         <v>910322</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="10">
         <v>936519</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F90" s="6" t="s">
+      <c r="E90" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F90" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G90" s="6">
+      <c r="G90" s="10">
         <v>3202017</v>
       </c>
-      <c r="H90" s="6"/>
+      <c r="H90" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="8">
         <v>905617</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="8">
         <v>905917</v>
       </c>
-      <c r="E91" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F91" s="6" t="s">
+      <c r="E91" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F91" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G91" s="8">
         <v>3202017</v>
       </c>
-      <c r="H91" s="6"/>
+      <c r="H91" s="7" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="8">
         <v>935040</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="8">
         <v>930695</v>
       </c>
-      <c r="E92" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F92" s="6" t="s">
+      <c r="E92" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F92" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G92" s="6">
+      <c r="G92" s="8">
         <v>3262017</v>
       </c>
-      <c r="H92" s="6"/>
+      <c r="H92" s="7" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="10">
         <v>936386</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="10">
         <v>918938</v>
       </c>
-      <c r="E93" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F93" s="6" t="s">
+      <c r="E93" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F93" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="G93" s="6">
+      <c r="G93" s="10">
         <v>3242017</v>
       </c>
-      <c r="H93" s="6"/>
+      <c r="H93" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="8">
         <v>936105</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="8">
         <v>943297</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F94" s="6" t="s">
+      <c r="E94" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G94" s="6">
+      <c r="G94" s="8">
         <v>3252017</v>
       </c>
-      <c r="H94" s="6"/>
+      <c r="H94" s="7" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="10">
         <v>912885</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="10">
         <v>936547</v>
       </c>
-      <c r="E95" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F95" s="6" t="s">
+      <c r="E95" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F95" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="G95" s="6">
+      <c r="G95" s="10">
         <v>3252017</v>
       </c>
-      <c r="H95" s="6"/>
+      <c r="H95" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="8">
         <v>904122</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="8">
         <v>905920</v>
       </c>
-      <c r="E96" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F96" s="6" t="s">
+      <c r="E96" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="G96" s="6">
+      <c r="G96" s="8">
         <v>3242017</v>
       </c>
-      <c r="H96" s="6"/>
+      <c r="H96" s="7" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="10">
         <v>900509</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="10">
         <v>943328</v>
       </c>
-      <c r="E97" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F97" s="6" t="s">
+      <c r="E97" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F97" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="G97" s="6">
+      <c r="G97" s="10">
         <v>3272017</v>
       </c>
-      <c r="H97" s="6"/>
+      <c r="H97" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="8">
         <v>900504</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="8">
         <v>913334</v>
       </c>
-      <c r="E98" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F98" s="6" t="s">
+      <c r="E98" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F98" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="G98" s="6">
+      <c r="G98" s="8">
         <v>3172017</v>
       </c>
-      <c r="H98" s="6"/>
+      <c r="H98" s="7" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="8">
         <v>925605</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="8">
         <v>943319</v>
       </c>
-      <c r="E99" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F99" s="6" t="s">
+      <c r="E99" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F99" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="G99" s="6">
+      <c r="G99" s="8">
         <v>3282017</v>
       </c>
-      <c r="H99" s="6"/>
+      <c r="H99" s="7" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="8">
         <v>936993</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="8">
         <v>916665</v>
       </c>
-      <c r="E100" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F100" s="6" t="s">
+      <c r="E100" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F100" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G100" s="6">
+      <c r="G100" s="8">
         <v>3292017</v>
       </c>
-      <c r="H100" s="6"/>
+      <c r="H100" s="7" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="10">
         <v>935024</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="10">
         <v>904333</v>
       </c>
-      <c r="E101" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F101" s="6" t="s">
+      <c r="E101" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F101" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="G101" s="6">
+      <c r="G101" s="10">
         <v>3292017</v>
       </c>
-      <c r="H101" s="6"/>
+      <c r="H101" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="8">
         <v>900504</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="8">
         <v>913334</v>
       </c>
-      <c r="E102" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F102" s="6" t="s">
+      <c r="E102" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F102" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="G102" s="6">
+      <c r="G102" s="8">
         <v>3292017</v>
       </c>
-      <c r="H102" s="6"/>
+      <c r="H102" s="7" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="8">
         <v>923234</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="8">
         <v>923893</v>
       </c>
-      <c r="E103" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F103" s="6" t="s">
+      <c r="E103" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F103" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G103" s="6">
+      <c r="G103" s="8">
         <v>3302017</v>
       </c>
-      <c r="H103" s="6"/>
+      <c r="H103" s="7" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="8">
         <v>935342</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D104" s="8">
         <v>915833</v>
       </c>
-      <c r="E104" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F104" s="6" t="s">
+      <c r="E104" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F104" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="G104" s="6">
+      <c r="G104" s="8">
         <v>4012017</v>
       </c>
-      <c r="H104" s="6"/>
+      <c r="H104" s="7" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="10">
         <v>929488</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="10">
         <v>946645</v>
       </c>
-      <c r="E105" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F105" s="6" t="s">
+      <c r="E105" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F105" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G105" s="6">
+      <c r="G105" s="10">
         <v>3302017</v>
       </c>
-      <c r="H105" s="6"/>
+      <c r="H105" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106" s="10">
         <v>947660</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D106" s="10">
         <v>930697</v>
       </c>
-      <c r="E106" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F106" s="6" t="s">
+      <c r="E106" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F106" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G106" s="6">
+      <c r="G106" s="10">
         <v>3302017</v>
       </c>
-      <c r="H106" s="6"/>
+      <c r="H106" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="10">
         <v>923234</v>
       </c>
-      <c r="D107" s="6">
+      <c r="D107" s="10">
         <v>923893</v>
       </c>
-      <c r="E107" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F107" s="6" t="s">
+      <c r="E107" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F107" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="G107" s="6">
+      <c r="G107" s="10">
         <v>4012017</v>
       </c>
-      <c r="H107" s="6"/>
+      <c r="H107" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="10">
         <v>900819</v>
       </c>
-      <c r="D108" s="6">
+      <c r="D108" s="10">
         <v>936526</v>
       </c>
-      <c r="E108" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F108" s="6" t="s">
+      <c r="E108" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F108" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="G108" s="6">
+      <c r="G108" s="10">
         <v>3312017</v>
       </c>
-      <c r="H108" s="6"/>
+      <c r="H108" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109" s="8">
         <v>910322</v>
       </c>
-      <c r="D109" s="6">
+      <c r="D109" s="8">
         <v>936519</v>
       </c>
-      <c r="E109" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F109" s="6" t="s">
+      <c r="E109" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F109" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="G109" s="6">
+      <c r="G109" s="8">
         <v>4012017</v>
       </c>
-      <c r="H109" s="6"/>
+      <c r="H109" s="7" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="10">
         <v>935342</v>
       </c>
-      <c r="D110" s="6">
+      <c r="D110" s="10">
         <v>915833</v>
       </c>
-      <c r="E110" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F110" s="6" t="s">
+      <c r="E110" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F110" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="G110" s="6">
+      <c r="G110" s="10">
         <v>4032017</v>
       </c>
-      <c r="H110" s="6"/>
+      <c r="H110" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="10">
         <v>900504</v>
       </c>
-      <c r="D111" s="6">
+      <c r="D111" s="10">
         <v>913334</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F111" s="6" t="s">
+      <c r="E111" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F111" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="G111" s="6">
+      <c r="G111" s="10">
         <v>4032017</v>
       </c>
-      <c r="H111" s="6"/>
+      <c r="H111" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="8">
         <v>936119</v>
       </c>
-      <c r="D112" s="6">
+      <c r="D112" s="8">
         <v>936546</v>
       </c>
-      <c r="E112" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F112" s="6" t="s">
+      <c r="E112" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F112" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="G112" s="6">
+      <c r="G112" s="8">
         <v>4032017</v>
       </c>
-      <c r="H112" s="6"/>
+      <c r="H112" s="7" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="10">
         <v>904176</v>
       </c>
-      <c r="D113" s="6">
+      <c r="D113" s="10">
         <v>926379</v>
       </c>
-      <c r="E113" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F113" s="6" t="s">
+      <c r="E113" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F113" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G113" s="6">
+      <c r="G113" s="10">
         <v>4042017</v>
       </c>
-      <c r="H113" s="6"/>
+      <c r="H113" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="10">
         <v>936119</v>
       </c>
-      <c r="D114" s="6">
+      <c r="D114" s="10">
         <v>936546</v>
       </c>
-      <c r="E114" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F114" s="6" t="s">
+      <c r="E114" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F114" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G114" s="6">
+      <c r="G114" s="10">
         <v>4042017</v>
       </c>
-      <c r="H114" s="6"/>
+      <c r="H114" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115" s="10">
         <v>908403</v>
       </c>
-      <c r="D115" s="6">
+      <c r="D115" s="10">
         <v>936521</v>
       </c>
-      <c r="E115" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F115" s="6" t="s">
+      <c r="E115" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F115" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="G115" s="6">
+      <c r="G115" s="10">
         <v>4032017</v>
       </c>
-      <c r="H115" s="6"/>
+      <c r="H115" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="8">
         <v>915497</v>
       </c>
-      <c r="D116" s="6">
+      <c r="D116" s="8">
         <v>946645</v>
       </c>
-      <c r="E116" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F116" s="6" t="s">
+      <c r="E116" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F116" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="G116" s="6">
+      <c r="G116" s="8">
         <v>4042017</v>
       </c>
-      <c r="H116" s="6"/>
+      <c r="H116" s="7" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="10">
         <v>936119</v>
       </c>
-      <c r="D117" s="6">
+      <c r="D117" s="10">
         <v>936540</v>
       </c>
-      <c r="E117" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F117" s="6" t="s">
+      <c r="E117" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F117" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="G117" s="6">
+      <c r="G117" s="10">
         <v>4042017</v>
       </c>
-      <c r="H117" s="6"/>
+      <c r="H117" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="10">
         <v>908403</v>
       </c>
-      <c r="D118" s="6">
+      <c r="D118" s="10">
         <v>906345</v>
       </c>
-      <c r="E118" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F118" s="6" t="s">
+      <c r="E118" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F118" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="G118" s="6">
+      <c r="G118" s="10">
         <v>4062017</v>
       </c>
-      <c r="H118" s="6"/>
+      <c r="H118" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C119" s="10">
         <v>900504</v>
       </c>
-      <c r="D119" s="6">
+      <c r="D119" s="10">
         <v>902108</v>
       </c>
-      <c r="E119" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F119" s="6" t="s">
+      <c r="E119" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F119" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G119" s="6">
+      <c r="G119" s="10">
         <v>4062017</v>
       </c>
-      <c r="H119" s="6"/>
+      <c r="H119" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="10">
         <v>900504</v>
       </c>
-      <c r="D120" s="6">
+      <c r="D120" s="10">
         <v>902108</v>
       </c>
-      <c r="E120" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F120" s="6" t="s">
+      <c r="E120" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F120" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="G120" s="6">
+      <c r="G120" s="10">
         <v>4082017</v>
       </c>
-      <c r="H120" s="6"/>
+      <c r="H120" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="8">
         <v>937376</v>
       </c>
-      <c r="D121" s="6">
+      <c r="D121" s="8">
         <v>943301</v>
       </c>
-      <c r="E121" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F121" s="6" t="s">
+      <c r="E121" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F121" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G121" s="6">
+      <c r="G121" s="8">
         <v>4082017</v>
       </c>
-      <c r="H121" s="6"/>
+      <c r="H121" s="7" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="10">
         <v>915497</v>
       </c>
-      <c r="D122" s="6">
+      <c r="D122" s="10">
         <v>946645</v>
       </c>
-      <c r="E122" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F122" s="6" t="s">
+      <c r="E122" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F122" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="G122" s="6">
+      <c r="G122" s="10">
         <v>4062017</v>
       </c>
-      <c r="H122" s="6"/>
+      <c r="H122" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="8">
         <v>936768</v>
       </c>
-      <c r="D123" s="6">
+      <c r="D123" s="8">
         <v>939367</v>
       </c>
-      <c r="E123" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F123" s="6" t="s">
+      <c r="E123" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F123" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="G123" s="6">
+      <c r="G123" s="8">
         <v>4072017</v>
       </c>
-      <c r="H123" s="6"/>
+      <c r="H123" s="7" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C124" s="10">
         <v>937109</v>
       </c>
-      <c r="D124" s="6">
+      <c r="D124" s="10">
         <v>943297</v>
       </c>
-      <c r="E124" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F124" s="6" t="s">
+      <c r="E124" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F124" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="G124" s="6">
+      <c r="G124" s="10">
         <v>4072017</v>
       </c>
-      <c r="H124" s="6"/>
+      <c r="H124" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="8">
         <v>932329</v>
       </c>
-      <c r="D125" s="6">
+      <c r="D125" s="8">
         <v>907307</v>
       </c>
-      <c r="E125" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F125" s="6" t="s">
+      <c r="E125" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F125" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G125" s="6">
+      <c r="G125" s="8">
         <v>4102017</v>
       </c>
-      <c r="H125" s="6"/>
+      <c r="H125" s="7" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="8">
         <v>900504</v>
       </c>
-      <c r="D126" s="6">
+      <c r="D126" s="8">
         <v>913334</v>
       </c>
-      <c r="E126" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F126" s="6" t="s">
+      <c r="E126" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F126" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="G126" s="6">
+      <c r="G126" s="8">
         <v>4092017</v>
       </c>
-      <c r="H126" s="6"/>
+      <c r="H126" s="7" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="10">
         <v>931142</v>
       </c>
-      <c r="D127" s="6">
+      <c r="D127" s="10">
         <v>920759</v>
       </c>
-      <c r="E127" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F127" s="6" t="s">
+      <c r="E127" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F127" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G127" s="6">
+      <c r="G127" s="10">
         <v>4092017</v>
       </c>
-      <c r="H127" s="6"/>
+      <c r="H127" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="10">
         <v>915497</v>
       </c>
-      <c r="D128" s="6">
+      <c r="D128" s="10">
         <v>946645</v>
       </c>
-      <c r="E128" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F128" s="6" t="s">
+      <c r="E128" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F128" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="G128" s="6">
+      <c r="G128" s="10">
         <v>4082017</v>
       </c>
-      <c r="H128" s="6"/>
+      <c r="H128" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="10">
         <v>947660</v>
       </c>
-      <c r="D129" s="6">
+      <c r="D129" s="10">
         <v>930697</v>
       </c>
-      <c r="E129" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F129" s="6" t="s">
+      <c r="E129" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F129" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="G129" s="6">
+      <c r="G129" s="10">
         <v>3302017</v>
       </c>
-      <c r="H129" s="6"/>
+      <c r="H129" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C130" s="8">
         <v>932329</v>
       </c>
-      <c r="D130" s="6">
+      <c r="D130" s="8">
         <v>907307</v>
       </c>
-      <c r="E130" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F130" s="6" t="s">
+      <c r="E130" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F130" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G130" s="6">
+      <c r="G130" s="8">
         <v>4102017</v>
       </c>
-      <c r="H130" s="6"/>
+      <c r="H130" s="7" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C131" s="10">
         <v>936119</v>
       </c>
-      <c r="D131" s="6">
+      <c r="D131" s="10">
         <v>936546</v>
       </c>
-      <c r="E131" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F131" s="6" t="s">
+      <c r="E131" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F131" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="G131" s="6">
+      <c r="G131" s="10">
         <v>4102017</v>
       </c>
-      <c r="H131" s="6"/>
+      <c r="H131" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C132" s="10">
         <v>936119</v>
       </c>
-      <c r="D132" s="6">
+      <c r="D132" s="10">
         <v>936546</v>
       </c>
-      <c r="E132" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F132" s="6" t="s">
+      <c r="E132" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F132" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="G132" s="6">
+      <c r="G132" s="10">
         <v>4102017</v>
       </c>
-      <c r="H132" s="6"/>
+      <c r="H132" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C133" s="10">
         <v>937109</v>
       </c>
-      <c r="D133" s="6">
+      <c r="D133" s="10">
         <v>908539</v>
       </c>
-      <c r="E133" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F133" s="6" t="s">
+      <c r="E133" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F133" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="G133" s="6">
+      <c r="G133" s="10">
         <v>4102017</v>
       </c>
-      <c r="H133" s="6"/>
+      <c r="H133" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C134" s="6">
+      <c r="C134" s="10">
         <v>921993</v>
       </c>
-      <c r="D134" s="6">
+      <c r="D134" s="10">
         <v>920761</v>
       </c>
-      <c r="E134" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F134" s="6" t="s">
+      <c r="E134" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F134" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="G134" s="6">
+      <c r="G134" s="10">
         <v>3312017</v>
       </c>
-      <c r="H134" s="6"/>
+      <c r="H134" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C135" s="10">
         <v>925605</v>
       </c>
-      <c r="D135" s="6">
+      <c r="D135" s="10">
         <v>943319</v>
       </c>
-      <c r="E135" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F135" s="6" t="s">
+      <c r="E135" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F135" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G135" s="6">
+      <c r="G135" s="10">
         <v>4112017</v>
       </c>
-      <c r="H135" s="6"/>
+      <c r="H135" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C136" s="10">
         <v>921419</v>
       </c>
-      <c r="D136" s="6">
+      <c r="D136" s="10">
         <v>945092</v>
       </c>
-      <c r="E136" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F136" s="6" t="s">
+      <c r="E136" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F136" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="G136" s="6">
+      <c r="G136" s="10">
         <v>4122017</v>
       </c>
-      <c r="H136" s="6"/>
+      <c r="H136" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C137" s="6">
+      <c r="C137" s="10">
         <v>936119</v>
       </c>
-      <c r="D137" s="6">
+      <c r="D137" s="10">
         <v>936546</v>
       </c>
-      <c r="E137" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F137" s="6" t="s">
+      <c r="E137" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F137" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="G137" s="6">
+      <c r="G137" s="10">
         <v>4112017</v>
       </c>
-      <c r="H137" s="6"/>
+      <c r="H137" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C138" s="6">
+      <c r="C138" s="10">
         <v>936119</v>
       </c>
-      <c r="D138" s="6">
+      <c r="D138" s="10">
         <v>936546</v>
       </c>
-      <c r="E138" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F138" s="6" t="s">
+      <c r="E138" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F138" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="G138" s="6">
+      <c r="G138" s="10">
         <v>4122017</v>
       </c>
-      <c r="H138" s="6"/>
+      <c r="H138" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C139" s="6">
+      <c r="C139" s="10">
         <v>936768</v>
       </c>
-      <c r="D139" s="6">
+      <c r="D139" s="10">
         <v>939367</v>
       </c>
-      <c r="E139" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F139" s="6" t="s">
+      <c r="E139" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F139" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="G139" s="6">
+      <c r="G139" s="10">
         <v>2222017</v>
       </c>
-      <c r="H139" s="6"/>
+      <c r="H139" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C140" s="6">
+      <c r="C140" s="8">
         <v>919753</v>
       </c>
-      <c r="D140" s="6">
+      <c r="D140" s="8">
         <v>936489</v>
       </c>
-      <c r="E140" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F140" s="6" t="s">
+      <c r="E140" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F140" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="G140" s="6">
+      <c r="G140" s="8">
         <v>4132017</v>
       </c>
-      <c r="H140" s="6"/>
+      <c r="H140" s="7" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C141" s="6">
+      <c r="C141" s="8">
         <v>913868</v>
       </c>
-      <c r="D141" s="6">
+      <c r="D141" s="8">
         <v>936528</v>
       </c>
-      <c r="E141" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F141" s="6" t="s">
+      <c r="E141" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F141" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="G141" s="6">
+      <c r="G141" s="8">
         <v>4142017</v>
       </c>
-      <c r="H141" s="6"/>
+      <c r="H141" s="7" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C142" s="6">
+      <c r="C142" s="10">
         <v>913181</v>
       </c>
-      <c r="D142" s="6">
+      <c r="D142" s="10">
         <v>933752</v>
       </c>
-      <c r="E142" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F142" s="6" t="s">
+      <c r="E142" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F142" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="G142" s="6">
+      <c r="G142" s="10">
         <v>4132017</v>
       </c>
-      <c r="H142" s="6"/>
+      <c r="H142" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C143" s="6">
+      <c r="C143" s="8">
         <v>908403</v>
       </c>
-      <c r="D143" s="6">
+      <c r="D143" s="8">
         <v>936521</v>
       </c>
-      <c r="E143" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F143" s="6" t="s">
+      <c r="E143" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F143" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="G143" s="6">
+      <c r="G143" s="8">
         <v>4122017</v>
       </c>
-      <c r="H143" s="6"/>
+      <c r="H143" s="7" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C144" s="6">
+      <c r="C144" s="10">
         <v>913181</v>
       </c>
-      <c r="D144" s="6">
+      <c r="D144" s="10">
         <v>939939</v>
       </c>
-      <c r="E144" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F144" s="6" t="s">
+      <c r="E144" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F144" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G144" s="6">
+      <c r="G144" s="10">
         <v>4132017</v>
       </c>
-      <c r="H144" s="6"/>
+      <c r="H144" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C145" s="6">
+      <c r="C145" s="10">
         <v>900504</v>
       </c>
-      <c r="D145" s="6">
+      <c r="D145" s="10">
         <v>902108</v>
       </c>
-      <c r="E145" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F145" s="6" t="s">
+      <c r="E145" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F145" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="G145" s="6">
+      <c r="G145" s="10">
         <v>4142017</v>
       </c>
-      <c r="H145" s="6"/>
+      <c r="H145" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C146" s="6">
+      <c r="C146" s="8">
         <v>904122</v>
       </c>
-      <c r="D146" s="6">
+      <c r="D146" s="8">
         <v>905912</v>
       </c>
-      <c r="E146" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F146" s="6" t="s">
+      <c r="E146" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F146" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G146" s="6">
+      <c r="G146" s="8">
         <v>4142017</v>
       </c>
-      <c r="H146" s="6"/>
+      <c r="H146" s="7" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C147" s="6">
+      <c r="C147" s="10">
         <v>937109</v>
       </c>
-      <c r="D147" s="6">
+      <c r="D147" s="10">
         <v>936533</v>
       </c>
-      <c r="E147" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F147" s="6" t="s">
+      <c r="E147" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F147" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="G147" s="6">
+      <c r="G147" s="10">
         <v>4142017</v>
       </c>
-      <c r="H147" s="6"/>
+      <c r="H147" s="9" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
@@ -8554,140 +8708,140 @@
       </c>
     </row>
     <row r="265" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B265" s="14" t="s">
+      <c r="B265" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="C265" s="15">
+      <c r="C265" s="14">
         <v>943674</v>
       </c>
-      <c r="D265" s="15">
+      <c r="D265" s="14">
         <v>923693</v>
       </c>
-      <c r="E265" s="15" t="s">
+      <c r="E265" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F265" s="15" t="s">
+      <c r="F265" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="G265" s="15">
+      <c r="G265" s="14">
         <v>4192017</v>
       </c>
-      <c r="H265" s="14" t="s">
+      <c r="H265" s="13" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="266" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B266" s="16" t="s">
+      <c r="B266" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="C266" s="17">
+      <c r="C266" s="16">
         <v>949538</v>
       </c>
-      <c r="D266" s="17">
+      <c r="D266" s="16">
         <v>949538</v>
       </c>
-      <c r="E266" s="17" t="s">
+      <c r="E266" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F266" s="17" t="s">
+      <c r="F266" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="G266" s="17">
+      <c r="G266" s="16">
         <v>4262017</v>
       </c>
-      <c r="H266" s="16" t="s">
+      <c r="H266" s="15" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="267" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B267" s="16" t="s">
+      <c r="B267" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="C267" s="17">
+      <c r="C267" s="16">
         <v>935727</v>
       </c>
-      <c r="D267" s="17">
+      <c r="D267" s="16">
         <v>920176</v>
       </c>
-      <c r="E267" s="17" t="s">
+      <c r="E267" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F267" s="17" t="s">
+      <c r="F267" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="G267" s="17">
+      <c r="G267" s="16">
         <v>5102017</v>
       </c>
-      <c r="H267" s="16" t="s">
+      <c r="H267" s="15" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B268" s="16" t="s">
+      <c r="B268" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="C268" s="17">
+      <c r="C268" s="16">
         <v>922113</v>
       </c>
-      <c r="D268" s="17">
+      <c r="D268" s="16">
         <v>936469</v>
       </c>
-      <c r="E268" s="17" t="s">
+      <c r="E268" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F268" s="17" t="s">
+      <c r="F268" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="G268" s="17">
+      <c r="G268" s="16">
         <v>4272017</v>
       </c>
-      <c r="H268" s="16" t="s">
+      <c r="H268" s="15" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B269" s="14" t="s">
+      <c r="B269" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="C269" s="15">
+      <c r="C269" s="14">
         <v>944565</v>
       </c>
-      <c r="D269" s="15">
+      <c r="D269" s="14">
         <v>936475</v>
       </c>
-      <c r="E269" s="15" t="s">
+      <c r="E269" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F269" s="15" t="s">
+      <c r="F269" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="G269" s="15">
+      <c r="G269" s="14">
         <v>4292017</v>
       </c>
-      <c r="H269" s="14" t="s">
+      <c r="H269" s="13" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B270" s="14" t="s">
+      <c r="B270" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="C270" s="15">
+      <c r="C270" s="14">
         <v>917687</v>
       </c>
-      <c r="D270" s="15">
+      <c r="D270" s="14">
         <v>920157</v>
       </c>
-      <c r="E270" s="15" t="s">
+      <c r="E270" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F270" s="15" t="s">
+      <c r="F270" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="G270" s="15">
+      <c r="G270" s="14">
         <v>5042017</v>
       </c>
-      <c r="H270" s="14" t="s">
+      <c r="H270" s="13" t="s">
         <v>752</v>
       </c>
     </row>
